--- a/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
+++ b/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9AD15-7E90-4F87-867E-9878137F9E0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40849304-9D02-4312-B091-37AA714657E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1006">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3333,6 +3333,38 @@
   </si>
   <si>
     <t>EQ1-I433</t>
+  </si>
+  <si>
+    <t>EQ1-I453</t>
+  </si>
+  <si>
+    <t>EQ1-I299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While registering
+a new patient and 
+click on save button and while 
+selecting the patient.In Address
+field the emirates
+is displaying
+</t>
+  </si>
+  <si>
+    <t>EQ1-I461</t>
+  </si>
+  <si>
+    <t>EQ1-I456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While pasting an appoinment  appoinment  coping
+forever-details  are not available
+</t>
+  </si>
+  <si>
+    <t>Click on "Marked as arrived" option of  a billed patient whose appointment is confirmed from the Appoinment list</t>
+  </si>
+  <si>
+    <t>same As Expected Result</t>
   </si>
 </sst>
 </file>
@@ -3897,9 +3929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K163" sqref="K163"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H560" sqref="H560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,7 +3943,7 @@
     <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="48.140625" style="7" customWidth="1"/>
     <col min="7" max="9" width="31" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="2" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="13.140625" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
@@ -4012,7 +4044,7 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4044,7 +4076,7 @@
       </c>
       <c r="P3" s="4">
         <f>COUNTA(L:L)-1</f>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>17</v>
@@ -4110,7 +4142,7 @@
       </c>
       <c r="S5" s="9">
         <f>COUNTA(M:M)-1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -4309,7 +4341,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="D17" s="34"/>
       <c r="E17" s="2">
@@ -4326,7 +4358,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="D18" s="34"/>
       <c r="E18" s="2">
@@ -4346,7 +4378,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="D19" s="34"/>
       <c r="E19" s="2">
@@ -4365,11 +4397,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
@@ -4402,7 +4434,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="D22" s="34"/>
       <c r="E22" s="2">
@@ -4422,7 +4454,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="D23" s="34"/>
       <c r="E23" s="2">
@@ -4439,7 +4471,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="D24" s="34"/>
       <c r="E24" s="2">
@@ -4456,7 +4488,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="D25" s="34"/>
       <c r="E25" s="2">
@@ -4473,7 +4505,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="D26" s="34"/>
       <c r="E26" s="2">
@@ -4493,7 +4525,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="D27" s="34"/>
       <c r="E27" s="2">
@@ -4510,7 +4542,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="D28" s="34"/>
       <c r="E28" s="2">
@@ -4527,7 +4559,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="D29" s="34"/>
       <c r="E29" s="2">
@@ -4546,8 +4578,11 @@
         <v>78</v>
       </c>
       <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M29" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="D30" s="34"/>
       <c r="E30" s="2">
@@ -4566,11 +4601,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>25</v>
       </c>
@@ -4603,7 +4638,7 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="D33" s="34"/>
       <c r="E33" s="2">
@@ -4623,7 +4658,7 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="D34" s="34"/>
       <c r="E34" s="2">
@@ -4640,7 +4675,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="D35" s="34"/>
       <c r="E35" s="2">
@@ -4657,7 +4692,7 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="D36" s="34"/>
       <c r="E36" s="2">
@@ -4674,7 +4709,7 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="D37" s="34"/>
       <c r="E37" s="2">
@@ -4694,7 +4729,7 @@
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="D38" s="34"/>
       <c r="E38" s="2">
@@ -4711,7 +4746,7 @@
       </c>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="D39" s="34"/>
       <c r="E39" s="2">
@@ -4728,7 +4763,7 @@
       </c>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="D40" s="34"/>
       <c r="E40" s="2">
@@ -4748,7 +4783,7 @@
       </c>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="D41" s="34"/>
       <c r="E41" s="2">
@@ -4765,7 +4800,7 @@
       </c>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="D42" s="34"/>
       <c r="E42" s="2">
@@ -4782,7 +4817,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="D43" s="34"/>
       <c r="E43" s="2">
@@ -4799,7 +4834,7 @@
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="D44" s="34"/>
       <c r="E44" s="2">
@@ -4817,16 +4852,19 @@
       <c r="L44" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="2" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>26</v>
       </c>
@@ -4859,7 +4897,7 @@
       </c>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="D48" s="34"/>
       <c r="E48" s="2">
@@ -5398,7 +5436,7 @@
       <c r="B79" s="10"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
@@ -5424,10 +5462,16 @@
         <v>991</v>
       </c>
       <c r="I80" s="15"/>
+      <c r="J80" s="7" t="s">
+        <v>1000</v>
+      </c>
       <c r="K80" s="2" t="s">
         <v>990</v>
       </c>
       <c r="L80" s="4"/>
+      <c r="M80" s="2" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="10"/>
@@ -5625,7 +5669,7 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B92" s="10"/>
       <c r="D92" s="34"/>
       <c r="E92" s="2">
@@ -6496,7 +6540,7 @@
       </c>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B145" s="10"/>
       <c r="D145" s="34"/>
       <c r="E145" s="2">
@@ -6513,7 +6557,7 @@
       </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B146" s="10"/>
       <c r="D146" s="34"/>
       <c r="E146" s="2">
@@ -6530,7 +6574,7 @@
       </c>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B147" s="10"/>
       <c r="D147" s="34"/>
       <c r="E147" s="2">
@@ -6547,7 +6591,7 @@
       </c>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="10"/>
       <c r="D148" s="34"/>
       <c r="E148" s="2">
@@ -6566,15 +6610,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B149" s="10"/>
       <c r="L149" s="4"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B150" s="10"/>
       <c r="L150" s="4"/>
     </row>
-    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>34</v>
       </c>
@@ -6604,7 +6648,7 @@
       </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B152" s="10"/>
       <c r="D152" s="34"/>
       <c r="E152" s="2">
@@ -6621,7 +6665,7 @@
       </c>
       <c r="L152" s="4"/>
     </row>
-    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B153" s="10"/>
       <c r="D153" s="34"/>
       <c r="E153" s="2">
@@ -6638,7 +6682,7 @@
       </c>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B154" s="10"/>
       <c r="D154" s="34"/>
       <c r="E154" s="2">
@@ -6655,7 +6699,7 @@
       </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="10"/>
       <c r="D155" s="34"/>
       <c r="E155" s="2">
@@ -6672,7 +6716,7 @@
       </c>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B156" s="10"/>
       <c r="D156" s="34"/>
       <c r="E156" s="2">
@@ -6689,7 +6733,7 @@
       </c>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B157" s="10"/>
       <c r="D157" s="34"/>
       <c r="E157" s="2">
@@ -6706,7 +6750,7 @@
       </c>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B158" s="10"/>
       <c r="D158" s="34"/>
       <c r="E158" s="2">
@@ -6723,7 +6767,7 @@
       </c>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B159" s="10"/>
       <c r="D159" s="34"/>
       <c r="E159" s="2">
@@ -6738,9 +6782,15 @@
       <c r="H159" s="7" t="s">
         <v>991</v>
       </c>
+      <c r="J159" s="7" t="s">
+        <v>1003</v>
+      </c>
       <c r="L159" s="4"/>
-    </row>
-    <row r="160" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M159" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B160" s="10"/>
       <c r="D160" s="34"/>
       <c r="E160" s="2">
@@ -6789,7 +6839,9 @@
       <c r="G163" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H163" s="14"/>
+      <c r="H163" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I163" s="15" t="s">
         <v>48</v>
       </c>
@@ -6810,6 +6862,9 @@
       <c r="G164" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H164" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I164" s="16" t="s">
         <v>51</v>
       </c>
@@ -6827,6 +6882,9 @@
       <c r="G165" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H165" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L165" s="4"/>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6841,6 +6899,9 @@
       <c r="G166" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H166" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L166" s="4"/>
     </row>
     <row r="167" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6855,6 +6916,9 @@
       <c r="G167" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H167" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L167" s="4"/>
     </row>
     <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6869,6 +6933,9 @@
       <c r="G168" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="H168" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I168" s="7" t="s">
         <v>60</v>
       </c>
@@ -6886,6 +6953,9 @@
       <c r="G169" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H169" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L169" s="4"/>
     </row>
     <row r="170" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6900,6 +6970,9 @@
       <c r="G170" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="H170" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L170" s="4"/>
     </row>
     <row r="171" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -6914,6 +6987,9 @@
       <c r="G171" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="H171" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I171" s="7" t="s">
         <v>108</v>
       </c>
@@ -6931,6 +7007,9 @@
       <c r="G172" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="H172" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L172" s="4"/>
     </row>
     <row r="173" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -6945,6 +7024,9 @@
       <c r="G173" s="7" t="s">
         <v>149</v>
       </c>
+      <c r="H173" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6959,6 +7041,9 @@
       <c r="G174" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="H174" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L174" s="4"/>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6973,6 +7058,9 @@
       <c r="G175" s="7" t="s">
         <v>116</v>
       </c>
+      <c r="H175" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6987,6 +7075,9 @@
       <c r="G176" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="H176" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L176" s="4"/>
     </row>
     <row r="177" spans="2:12" ht="60" x14ac:dyDescent="0.25">
@@ -7001,6 +7092,9 @@
       <c r="G177" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="H177" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I177" s="7" t="s">
         <v>155</v>
       </c>
@@ -7018,6 +7112,9 @@
       <c r="G178" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="H178" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L178" s="4"/>
     </row>
     <row r="179" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7032,6 +7129,9 @@
       <c r="G179" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="H179" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I179" s="7" t="s">
         <v>160</v>
       </c>
@@ -7049,6 +7149,9 @@
       <c r="G180" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="H180" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I180" s="7" t="s">
         <v>163</v>
       </c>
@@ -7066,6 +7169,9 @@
       <c r="G181" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="H181" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L181" s="4"/>
     </row>
     <row r="182" spans="2:12" ht="240" x14ac:dyDescent="0.25">
@@ -7080,6 +7186,9 @@
       <c r="G182" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="H182" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I182" s="7" t="s">
         <v>168</v>
       </c>
@@ -7097,6 +7206,9 @@
       <c r="G183" s="7" t="s">
         <v>170</v>
       </c>
+      <c r="H183" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L183" s="4"/>
     </row>
     <row r="184" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7111,6 +7223,9 @@
       <c r="G184" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="H184" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L184" s="4"/>
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.25">
@@ -7125,6 +7240,9 @@
       <c r="G185" s="7" t="s">
         <v>315</v>
       </c>
+      <c r="H185" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L185" s="4"/>
     </row>
     <row r="186" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7139,6 +7257,9 @@
       <c r="G186" s="7" t="s">
         <v>317</v>
       </c>
+      <c r="H186" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L186" s="4"/>
     </row>
     <row r="187" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7153,6 +7274,9 @@
       <c r="G187" s="7" t="s">
         <v>319</v>
       </c>
+      <c r="H187" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L187" s="4"/>
     </row>
     <row r="188" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7167,6 +7291,9 @@
       <c r="G188" s="7" t="s">
         <v>173</v>
       </c>
+      <c r="H188" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L188" s="4"/>
     </row>
     <row r="189" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7181,6 +7308,9 @@
       <c r="G189" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H189" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L189" s="4"/>
     </row>
     <row r="190" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7195,6 +7325,9 @@
       <c r="G190" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H190" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L190" s="4"/>
     </row>
     <row r="191" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7209,6 +7342,9 @@
       <c r="G191" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H191" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L191" s="4"/>
     </row>
     <row r="192" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -7223,6 +7359,9 @@
       <c r="G192" s="7" t="s">
         <v>175</v>
       </c>
+      <c r="H192" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L192" s="4"/>
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7237,6 +7376,9 @@
       <c r="G193" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="H193" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L193" s="4"/>
     </row>
     <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7251,7 +7393,12 @@
       <c r="G194" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L194" s="4"/>
+      <c r="H194" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B195" s="10"/>
@@ -7283,8 +7430,14 @@
       <c r="G197" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="H197" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I197" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L197" s="4"/>
     </row>
@@ -7300,6 +7453,9 @@
       <c r="G198" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H198" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I198" s="16" t="s">
         <v>51</v>
       </c>
@@ -7317,6 +7473,9 @@
       <c r="G199" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H199" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L199" s="4"/>
     </row>
     <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7331,6 +7490,9 @@
       <c r="G200" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H200" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L200" s="4"/>
     </row>
     <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7345,6 +7507,9 @@
       <c r="G201" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H201" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L201" s="4"/>
     </row>
     <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7359,7 +7524,9 @@
       <c r="G202" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L202" s="4"/>
+      <c r="L202" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B203" s="10"/>
@@ -7437,9 +7604,14 @@
       <c r="G209" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H209" s="14"/>
+      <c r="H209" s="14" t="s">
+        <v>991</v>
+      </c>
       <c r="I209" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L209" s="4"/>
     </row>
@@ -7455,6 +7627,9 @@
       <c r="G210" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H210" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I210" s="16" t="s">
         <v>51</v>
       </c>
@@ -7472,6 +7647,9 @@
       <c r="G211" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H211" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L211" s="4"/>
     </row>
     <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7486,6 +7664,9 @@
       <c r="G212" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H212" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L212" s="4"/>
     </row>
     <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7500,6 +7681,9 @@
       <c r="G213" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H213" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L213" s="4"/>
     </row>
     <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7514,6 +7698,9 @@
       <c r="G214" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="H214" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I214" s="7" t="s">
         <v>60</v>
       </c>
@@ -7531,6 +7718,9 @@
       <c r="G215" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H215" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L215" s="4"/>
     </row>
     <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7545,6 +7735,9 @@
       <c r="G216" s="7" t="s">
         <v>190</v>
       </c>
+      <c r="H216" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L216" s="4"/>
     </row>
     <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7559,6 +7752,9 @@
       <c r="G217" s="7" t="s">
         <v>192</v>
       </c>
+      <c r="H217" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L217" s="4"/>
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7573,10 +7769,15 @@
       <c r="G218" s="7" t="s">
         <v>194</v>
       </c>
+      <c r="H218" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I218" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L218" s="4"/>
+      <c r="L218" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B219" s="10"/>
@@ -7612,9 +7813,14 @@
       <c r="G222" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H222" s="14"/>
+      <c r="H222" s="14" t="s">
+        <v>991</v>
+      </c>
       <c r="I222" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L222" s="4"/>
     </row>
@@ -7630,6 +7836,9 @@
       <c r="G223" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H223" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I223" s="16" t="s">
         <v>51</v>
       </c>
@@ -7647,6 +7856,9 @@
       <c r="G224" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H224" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L224" s="4"/>
     </row>
     <row r="225" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7661,6 +7873,9 @@
       <c r="G225" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H225" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L225" s="4"/>
     </row>
     <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7675,6 +7890,9 @@
       <c r="G226" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H226" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L226" s="4"/>
     </row>
     <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7689,6 +7907,9 @@
       <c r="G227" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="H227" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I227" s="7" t="s">
         <v>60</v>
       </c>
@@ -7706,6 +7927,9 @@
       <c r="G228" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H228" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L228" s="4"/>
     </row>
     <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7720,6 +7944,9 @@
       <c r="G229" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="H229" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L229" s="4"/>
     </row>
     <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7734,6 +7961,9 @@
       <c r="G230" s="7" t="s">
         <v>192</v>
       </c>
+      <c r="H230" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L230" s="4"/>
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7748,7 +7978,12 @@
       <c r="G231" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L231" s="4"/>
+      <c r="H231" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L231" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B232" s="10"/>
@@ -7780,9 +8015,14 @@
       <c r="G234" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H234" s="14"/>
+      <c r="H234" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I234" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L234" s="4"/>
     </row>
@@ -7798,6 +8038,9 @@
       <c r="G235" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H235" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I235" s="16" t="s">
         <v>51</v>
       </c>
@@ -7815,6 +8058,9 @@
       <c r="G236" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H236" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L236" s="4"/>
     </row>
     <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7829,6 +8075,9 @@
       <c r="G237" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H237" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L237" s="4"/>
     </row>
     <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7843,6 +8092,9 @@
       <c r="G238" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H238" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L238" s="4"/>
     </row>
     <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7857,6 +8109,9 @@
       <c r="G239" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="H239" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I239" s="7" t="s">
         <v>60</v>
       </c>
@@ -7874,6 +8129,9 @@
       <c r="G240" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H240" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L240" s="4"/>
     </row>
     <row r="241" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -7888,6 +8146,9 @@
       <c r="G241" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="H241" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L241" s="4"/>
     </row>
     <row r="242" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -7902,6 +8163,9 @@
       <c r="G242" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="H242" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I242" s="7" t="s">
         <v>108</v>
       </c>
@@ -7919,6 +8183,9 @@
       <c r="G243" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="H243" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L243" s="4"/>
     </row>
     <row r="244" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -7933,6 +8200,9 @@
       <c r="G244" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="H244" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L244" s="4"/>
     </row>
     <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7947,6 +8217,9 @@
       <c r="G245" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="H245" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L245" s="4"/>
     </row>
     <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7961,6 +8234,9 @@
       <c r="G246" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="H246" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L246" s="4"/>
     </row>
     <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7975,6 +8251,9 @@
       <c r="G247" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="H247" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L247" s="4"/>
     </row>
     <row r="248" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -7989,6 +8268,9 @@
       <c r="G248" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="H248" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L248" s="4"/>
     </row>
     <row r="249" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -8003,7 +8285,12 @@
       <c r="G249" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L249" s="4"/>
+      <c r="H249" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L249" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B250" s="10"/>
@@ -8035,9 +8322,14 @@
       <c r="G252" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H252" s="14"/>
+      <c r="H252" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I252" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K252" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L252" s="4"/>
     </row>
@@ -8053,6 +8345,9 @@
       <c r="G253" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H253" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I253" s="16" t="s">
         <v>51</v>
       </c>
@@ -8070,6 +8365,9 @@
       <c r="G254" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H254" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L254" s="4"/>
     </row>
     <row r="255" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8084,6 +8382,9 @@
       <c r="G255" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H255" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L255" s="4"/>
     </row>
     <row r="256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8098,6 +8399,9 @@
       <c r="G256" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H256" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L256" s="4"/>
     </row>
     <row r="257" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -8112,6 +8416,9 @@
       <c r="G257" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="H257" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I257" s="7" t="s">
         <v>60</v>
       </c>
@@ -8129,6 +8436,9 @@
       <c r="G258" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H258" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L258" s="4"/>
     </row>
     <row r="259" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -8143,6 +8453,9 @@
       <c r="G259" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="H259" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L259" s="4"/>
     </row>
     <row r="260" spans="2:12" ht="105" x14ac:dyDescent="0.25">
@@ -8157,6 +8470,9 @@
       <c r="G260" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="H260" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I260" s="7" t="s">
         <v>108</v>
       </c>
@@ -8174,6 +8490,9 @@
       <c r="G261" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="H261" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L261" s="4"/>
     </row>
     <row r="262" spans="2:12" ht="120" x14ac:dyDescent="0.25">
@@ -8188,6 +8507,9 @@
       <c r="G262" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="H262" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L262" s="4"/>
     </row>
     <row r="263" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -8202,6 +8524,9 @@
       <c r="G263" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="H263" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L263" s="4"/>
     </row>
     <row r="264" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -8216,6 +8541,9 @@
       <c r="G264" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="H264" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L264" s="4"/>
     </row>
     <row r="265" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -8230,6 +8558,9 @@
       <c r="G265" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="H265" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I265" s="7" t="s">
         <v>98</v>
       </c>
@@ -8247,6 +8578,9 @@
       <c r="G266" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="H266" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L266" s="4"/>
     </row>
     <row r="267" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -8261,6 +8595,9 @@
       <c r="G267" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="H267" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L267" s="4"/>
     </row>
     <row r="268" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -8275,6 +8612,9 @@
       <c r="G268" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="H268" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L268" s="4"/>
     </row>
     <row r="269" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -8289,6 +8629,9 @@
       <c r="G269" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="H269" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L269" s="4"/>
     </row>
     <row r="270" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -8303,7 +8646,12 @@
       <c r="G270" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L270" s="4"/>
+      <c r="H270" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L270" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="271" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B271" s="10"/>
@@ -8335,9 +8683,14 @@
       <c r="G273" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H273" s="14"/>
+      <c r="H273" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I273" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K273" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L273" s="4"/>
     </row>
@@ -8353,6 +8706,9 @@
       <c r="G274" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H274" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I274" s="16" t="s">
         <v>51</v>
       </c>
@@ -8370,6 +8726,9 @@
       <c r="G275" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H275" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L275" s="4"/>
     </row>
     <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8384,6 +8743,9 @@
       <c r="G276" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H276" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L276" s="4"/>
     </row>
     <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8398,6 +8760,9 @@
       <c r="G277" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H277" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L277" s="4"/>
     </row>
     <row r="278" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8412,6 +8777,9 @@
       <c r="G278" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="H278" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I278" s="7" t="s">
         <v>60</v>
       </c>
@@ -8429,6 +8797,9 @@
       <c r="G279" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H279" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L279" s="4"/>
     </row>
     <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -8443,6 +8814,9 @@
       <c r="G280" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="H280" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L280" s="4"/>
     </row>
     <row r="281" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -8457,6 +8831,9 @@
       <c r="G281" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="H281" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I281" s="7" t="s">
         <v>108</v>
       </c>
@@ -8474,6 +8851,9 @@
       <c r="G282" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="H282" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L282" s="4"/>
     </row>
     <row r="283" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8488,6 +8868,9 @@
       <c r="G283" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="H283" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L283" s="4"/>
     </row>
     <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8502,6 +8885,9 @@
       <c r="G284" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="H284" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L284" s="4"/>
     </row>
     <row r="285" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8516,6 +8902,9 @@
       <c r="G285" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="H285" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L285" s="4"/>
     </row>
     <row r="286" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8530,6 +8919,9 @@
       <c r="G286" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="H286" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I286" s="7" t="s">
         <v>98</v>
       </c>
@@ -8547,6 +8939,9 @@
       <c r="G287" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="H287" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L287" s="4"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -8561,7 +8956,12 @@
       <c r="G288" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L288" s="4"/>
+      <c r="H288" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L288" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B289" s="10"/>
@@ -8597,9 +8997,14 @@
       <c r="G292" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H292" s="14"/>
+      <c r="H292" s="14" t="s">
+        <v>991</v>
+      </c>
       <c r="I292" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K292" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L292" s="4"/>
     </row>
@@ -8615,6 +9020,9 @@
       <c r="G293" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H293" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I293" s="16" t="s">
         <v>51</v>
       </c>
@@ -8632,6 +9040,9 @@
       <c r="G294" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H294" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L294" s="4"/>
     </row>
     <row r="295" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8646,6 +9057,9 @@
       <c r="G295" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H295" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L295" s="4"/>
     </row>
     <row r="296" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8660,6 +9074,9 @@
       <c r="G296" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H296" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L296" s="4"/>
     </row>
     <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8674,6 +9091,9 @@
       <c r="G297" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="H297" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I297" s="7" t="s">
         <v>60</v>
       </c>
@@ -8691,6 +9111,9 @@
       <c r="G298" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H298" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L298" s="4"/>
     </row>
     <row r="299" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -8705,6 +9128,9 @@
       <c r="G299" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="H299" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L299" s="4"/>
     </row>
     <row r="300" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -8719,6 +9145,9 @@
       <c r="G300" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="H300" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I300" s="7" t="s">
         <v>108</v>
       </c>
@@ -8736,6 +9165,9 @@
       <c r="G301" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="H301" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L301" s="4"/>
     </row>
     <row r="302" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -8750,6 +9182,9 @@
       <c r="G302" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="H302" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L302" s="4"/>
     </row>
     <row r="303" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8764,6 +9199,9 @@
       <c r="G303" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="H303" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L303" s="4"/>
     </row>
     <row r="304" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -8778,7 +9216,12 @@
       <c r="G304" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L304" s="4"/>
+      <c r="H304" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L304" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B305" s="10"/>
@@ -8810,9 +9253,14 @@
       <c r="G307" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H307" s="14"/>
+      <c r="H307" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I307" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L307" s="4"/>
     </row>
@@ -8828,6 +9276,9 @@
       <c r="G308" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H308" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I308" s="16" t="s">
         <v>51</v>
       </c>
@@ -8845,6 +9296,9 @@
       <c r="G309" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H309" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L309" s="4"/>
     </row>
     <row r="310" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8859,6 +9313,9 @@
       <c r="G310" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H310" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L310" s="4"/>
     </row>
     <row r="311" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8873,6 +9330,9 @@
       <c r="G311" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H311" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L311" s="4"/>
     </row>
     <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8887,6 +9347,9 @@
       <c r="G312" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H312" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I312" s="7" t="s">
         <v>206</v>
       </c>
@@ -8904,6 +9367,9 @@
       <c r="G313" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="H313" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L313" s="4"/>
     </row>
     <row r="314" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8918,6 +9384,9 @@
       <c r="G314" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="H314" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L314" s="4"/>
     </row>
     <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8932,6 +9401,9 @@
       <c r="G315" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="H315" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L315" s="4"/>
     </row>
     <row r="316" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -8946,6 +9418,9 @@
       <c r="G316" s="7" t="s">
         <v>219</v>
       </c>
+      <c r="H316" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L316" s="4"/>
     </row>
     <row r="317" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -8960,6 +9435,9 @@
       <c r="G317" s="7" t="s">
         <v>244</v>
       </c>
+      <c r="H317" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L317" s="4"/>
     </row>
     <row r="318" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -8974,7 +9452,12 @@
       <c r="G318" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L318" s="4"/>
+      <c r="H318" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L318" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="319" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B319" s="10"/>
@@ -9009,9 +9492,14 @@
       <c r="G321" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H321" s="14"/>
+      <c r="H321" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I321" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K321" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L321" s="4"/>
     </row>
@@ -9027,6 +9515,9 @@
       <c r="G322" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H322" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I322" s="16" t="s">
         <v>51</v>
       </c>
@@ -9044,6 +9535,9 @@
       <c r="G323" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H323" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L323" s="4"/>
     </row>
     <row r="324" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9058,6 +9552,9 @@
       <c r="G324" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H324" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L324" s="4"/>
     </row>
     <row r="325" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9072,6 +9569,9 @@
       <c r="G325" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H325" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L325" s="4"/>
     </row>
     <row r="326" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9086,6 +9586,9 @@
       <c r="G326" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H326" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I326" s="7" t="s">
         <v>226</v>
       </c>
@@ -9103,6 +9606,9 @@
       <c r="G327" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="H327" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L327" s="4"/>
     </row>
     <row r="328" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -9117,6 +9623,9 @@
       <c r="G328" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="H328" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L328" s="4"/>
     </row>
     <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9131,6 +9640,9 @@
       <c r="G329" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="H329" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L329" s="4"/>
     </row>
     <row r="330" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9145,6 +9657,9 @@
       <c r="G330" s="7" t="s">
         <v>227</v>
       </c>
+      <c r="H330" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L330" s="4"/>
     </row>
     <row r="331" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -9159,6 +9674,9 @@
       <c r="G331" s="7" t="s">
         <v>248</v>
       </c>
+      <c r="H331" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L331" s="4"/>
     </row>
     <row r="332" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -9173,6 +9691,9 @@
       <c r="G332" s="7" t="s">
         <v>230</v>
       </c>
+      <c r="H332" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L332" s="4"/>
     </row>
     <row r="333" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -9187,7 +9708,12 @@
       <c r="G333" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L333" s="4"/>
+      <c r="H333" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L333" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B334" s="10"/>
@@ -9223,9 +9749,14 @@
       <c r="G337" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H337" s="14"/>
+      <c r="H337" s="14" t="s">
+        <v>991</v>
+      </c>
       <c r="I337" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K337" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L337" s="4"/>
     </row>
@@ -9241,6 +9772,9 @@
       <c r="G338" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H338" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I338" s="16" t="s">
         <v>51</v>
       </c>
@@ -9258,6 +9792,9 @@
       <c r="G339" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H339" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L339" s="4"/>
     </row>
     <row r="340" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9272,6 +9809,9 @@
       <c r="G340" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H340" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L340" s="4"/>
     </row>
     <row r="341" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9286,6 +9826,9 @@
       <c r="G341" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H341" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L341" s="4"/>
     </row>
     <row r="342" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9300,6 +9843,9 @@
       <c r="G342" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H342" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I342" s="7" t="s">
         <v>226</v>
       </c>
@@ -9317,6 +9863,9 @@
       <c r="G343" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="H343" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L343" s="4"/>
     </row>
     <row r="344" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -9331,6 +9880,9 @@
       <c r="G344" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="H344" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L344" s="4"/>
     </row>
     <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9345,6 +9897,9 @@
       <c r="G345" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="H345" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L345" s="4"/>
     </row>
     <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9359,6 +9914,9 @@
       <c r="G346" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="H346" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L346" s="4"/>
     </row>
     <row r="347" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9373,6 +9931,9 @@
       <c r="G347" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="H347" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L347" s="4"/>
     </row>
     <row r="348" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9387,6 +9948,9 @@
       <c r="G348" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="H348" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L348" s="4"/>
     </row>
     <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9401,6 +9965,9 @@
       <c r="G349" s="7" t="s">
         <v>235</v>
       </c>
+      <c r="H349" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L349" s="4"/>
     </row>
     <row r="350" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -9415,6 +9982,9 @@
       <c r="G350" s="7" t="s">
         <v>247</v>
       </c>
+      <c r="H350" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L350" s="4"/>
     </row>
     <row r="351" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -9429,6 +9999,9 @@
       <c r="G351" s="7" t="s">
         <v>238</v>
       </c>
+      <c r="H351" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L351" s="4"/>
     </row>
     <row r="352" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -9443,7 +10016,12 @@
       <c r="G352" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L352" s="4"/>
+      <c r="H352" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L352" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B353" s="10"/>
@@ -9475,9 +10053,14 @@
       <c r="G355" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H355" s="14"/>
+      <c r="H355" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I355" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K355" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L355" s="4"/>
     </row>
@@ -9493,6 +10076,9 @@
       <c r="G356" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H356" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I356" s="16" t="s">
         <v>51</v>
       </c>
@@ -9510,6 +10096,9 @@
       <c r="G357" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H357" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L357" s="4"/>
     </row>
     <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9524,6 +10113,9 @@
       <c r="G358" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H358" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L358" s="4"/>
     </row>
     <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9538,6 +10130,9 @@
       <c r="G359" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H359" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L359" s="4"/>
     </row>
     <row r="360" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9552,6 +10147,9 @@
       <c r="G360" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H360" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I360" s="7" t="s">
         <v>226</v>
       </c>
@@ -9569,6 +10167,9 @@
       <c r="G361" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="H361" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L361" s="4"/>
     </row>
     <row r="362" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -9583,6 +10184,9 @@
       <c r="G362" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="H362" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L362" s="4"/>
     </row>
     <row r="363" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9597,6 +10201,9 @@
       <c r="G363" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="H363" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L363" s="4"/>
     </row>
     <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9611,6 +10218,9 @@
       <c r="G364" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="H364" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L364" s="4"/>
     </row>
     <row r="365" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9625,6 +10235,9 @@
       <c r="G365" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="H365" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L365" s="4"/>
     </row>
     <row r="366" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9639,6 +10252,9 @@
       <c r="G366" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="H366" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L366" s="4"/>
     </row>
     <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9653,6 +10269,9 @@
       <c r="G367" s="7" t="s">
         <v>235</v>
       </c>
+      <c r="H367" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L367" s="4"/>
     </row>
     <row r="368" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9667,6 +10286,9 @@
       <c r="G368" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="H368" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L368" s="4"/>
     </row>
     <row r="369" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -9681,6 +10303,9 @@
       <c r="G369" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="H369" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L369" s="4"/>
     </row>
     <row r="370" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9695,6 +10320,9 @@
       <c r="G370" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="H370" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L370" s="4"/>
     </row>
     <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9709,6 +10337,9 @@
       <c r="G371" s="7" t="s">
         <v>246</v>
       </c>
+      <c r="H371" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L371" s="4"/>
     </row>
     <row r="372" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -9723,6 +10354,9 @@
       <c r="G372" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="H372" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L372" s="4"/>
     </row>
     <row r="373" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -9737,6 +10371,9 @@
       <c r="G373" s="7" t="s">
         <v>253</v>
       </c>
+      <c r="H373" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L373" s="4"/>
     </row>
     <row r="374" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -9751,6 +10388,9 @@
       <c r="G374" s="7" t="s">
         <v>250</v>
       </c>
+      <c r="H374" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L374" s="4"/>
     </row>
     <row r="375" spans="1:12" ht="210" x14ac:dyDescent="0.25">
@@ -9765,7 +10405,12 @@
       <c r="G375" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="L375" s="4"/>
+      <c r="H375" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L375" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B376" s="10"/>
@@ -9797,9 +10442,12 @@
       <c r="G378" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H378" s="14"/>
-      <c r="I378" s="15" t="s">
-        <v>48</v>
+      <c r="H378" s="33" t="s">
+        <v>991</v>
+      </c>
+      <c r="I378" s="15"/>
+      <c r="K378" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L378" s="4"/>
     </row>
@@ -9815,6 +10463,9 @@
       <c r="G379" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H379" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I379" s="16" t="s">
         <v>51</v>
       </c>
@@ -9832,6 +10483,9 @@
       <c r="G380" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H380" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L380" s="4"/>
     </row>
     <row r="381" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9846,6 +10500,9 @@
       <c r="G381" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H381" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L381" s="4"/>
     </row>
     <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9860,6 +10517,9 @@
       <c r="G382" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H382" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L382" s="4"/>
     </row>
     <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9874,6 +10534,9 @@
       <c r="G383" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H383" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I383" s="7" t="s">
         <v>226</v>
       </c>
@@ -9891,6 +10554,9 @@
       <c r="G384" s="7" t="s">
         <v>263</v>
       </c>
+      <c r="H384" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L384" s="4"/>
     </row>
     <row r="385" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9905,6 +10571,9 @@
       <c r="G385" s="7" t="s">
         <v>264</v>
       </c>
+      <c r="H385" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L385" s="4"/>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
@@ -9919,6 +10588,9 @@
       <c r="G386" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="H386" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L386" s="4"/>
     </row>
     <row r="387" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9933,6 +10605,9 @@
       <c r="G387" s="7" t="s">
         <v>266</v>
       </c>
+      <c r="H387" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L387" s="4"/>
     </row>
     <row r="388" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -9947,7 +10622,12 @@
       <c r="G388" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="L388" s="4"/>
+      <c r="H388" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L388" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B389" s="10"/>
@@ -9979,9 +10659,14 @@
       <c r="G391" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H391" s="14"/>
+      <c r="H391" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I391" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K391" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L391" s="4"/>
     </row>
@@ -9997,6 +10682,9 @@
       <c r="G392" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H392" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I392" s="16" t="s">
         <v>51</v>
       </c>
@@ -10014,6 +10702,9 @@
       <c r="G393" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H393" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L393" s="4"/>
     </row>
     <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10028,6 +10719,9 @@
       <c r="G394" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H394" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L394" s="4"/>
     </row>
     <row r="395" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10042,6 +10736,9 @@
       <c r="G395" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H395" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L395" s="4"/>
     </row>
     <row r="396" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10056,6 +10753,9 @@
       <c r="G396" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H396" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I396" s="7" t="s">
         <v>226</v>
       </c>
@@ -10073,6 +10773,9 @@
       <c r="G397" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="H397" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L397" s="4"/>
     </row>
     <row r="398" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -10087,6 +10790,9 @@
       <c r="G398" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="H398" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L398" s="4"/>
     </row>
     <row r="399" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10101,6 +10807,9 @@
       <c r="G399" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="H399" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L399" s="4"/>
     </row>
     <row r="400" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10115,6 +10824,9 @@
       <c r="G400" s="7" t="s">
         <v>227</v>
       </c>
+      <c r="H400" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L400" s="4"/>
     </row>
     <row r="401" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -10129,6 +10841,9 @@
       <c r="G401" s="7" t="s">
         <v>248</v>
       </c>
+      <c r="H401" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L401" s="4"/>
     </row>
     <row r="402" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -10143,6 +10858,9 @@
       <c r="G402" s="7" t="s">
         <v>128</v>
       </c>
+      <c r="H402" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L402" s="4"/>
     </row>
     <row r="403" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -10157,6 +10875,9 @@
       <c r="G403" s="7" t="s">
         <v>130</v>
       </c>
+      <c r="H403" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L403" s="4"/>
     </row>
     <row r="404" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10171,6 +10892,9 @@
       <c r="G404" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="H404" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L404" s="4"/>
     </row>
     <row r="405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10185,6 +10909,9 @@
       <c r="G405" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="H405" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L405" s="4"/>
     </row>
     <row r="406" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -10199,6 +10926,9 @@
       <c r="G406" s="7" t="s">
         <v>274</v>
       </c>
+      <c r="H406" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L406" s="4"/>
     </row>
     <row r="407" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -10213,6 +10943,9 @@
       <c r="G407" s="7" t="s">
         <v>277</v>
       </c>
+      <c r="H407" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L407" s="4"/>
     </row>
     <row r="408" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10227,6 +10960,9 @@
       <c r="G408" s="7" t="s">
         <v>279</v>
       </c>
+      <c r="H408" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L408" s="4"/>
     </row>
     <row r="409" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -10241,7 +10977,12 @@
       <c r="G409" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L409" s="4"/>
+      <c r="H409" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L409" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B410" s="10"/>
@@ -10277,9 +11018,14 @@
       <c r="G413" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H413" s="14"/>
+      <c r="H413" s="14" t="s">
+        <v>991</v>
+      </c>
       <c r="I413" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K413" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L413" s="4"/>
     </row>
@@ -10295,6 +11041,9 @@
       <c r="G414" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H414" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I414" s="16" t="s">
         <v>51</v>
       </c>
@@ -10312,6 +11061,9 @@
       <c r="G415" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H415" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L415" s="4"/>
     </row>
     <row r="416" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10326,6 +11078,9 @@
       <c r="G416" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H416" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L416" s="4"/>
     </row>
     <row r="417" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10340,6 +11095,9 @@
       <c r="G417" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H417" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L417" s="4"/>
     </row>
     <row r="418" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10354,6 +11112,9 @@
       <c r="G418" s="7" t="s">
         <v>286</v>
       </c>
+      <c r="H418" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L418" s="4"/>
     </row>
     <row r="419" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -10368,6 +11129,9 @@
       <c r="G419" s="7" t="s">
         <v>288</v>
       </c>
+      <c r="H419" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I419" s="7" t="s">
         <v>289</v>
       </c>
@@ -10385,7 +11149,12 @@
       <c r="G420" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L420" s="4"/>
+      <c r="H420" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L420" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B421" s="10"/>
@@ -10417,9 +11186,14 @@
       <c r="G423" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H423" s="14"/>
+      <c r="H423" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I423" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L423" s="4"/>
     </row>
@@ -10435,6 +11209,9 @@
       <c r="G424" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H424" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I424" s="16" t="s">
         <v>51</v>
       </c>
@@ -10452,6 +11229,9 @@
       <c r="G425" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H425" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L425" s="4"/>
     </row>
     <row r="426" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10466,6 +11246,9 @@
       <c r="G426" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H426" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L426" s="4"/>
     </row>
     <row r="427" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10480,6 +11263,9 @@
       <c r="G427" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H427" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L427" s="4"/>
     </row>
     <row r="428" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -10494,6 +11280,9 @@
       <c r="G428" s="7" t="s">
         <v>294</v>
       </c>
+      <c r="H428" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L428" s="4"/>
     </row>
     <row r="429" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10508,6 +11297,9 @@
       <c r="G429" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H429" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L429" s="4"/>
     </row>
     <row r="430" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -10522,10 +11314,15 @@
       <c r="G430" s="7" t="s">
         <v>298</v>
       </c>
+      <c r="H430" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I430" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L430" s="4"/>
+      <c r="L430" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B431" s="10"/>
@@ -10557,9 +11354,14 @@
       <c r="G433" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H433" s="14"/>
+      <c r="H433" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I433" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K433" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L433" s="4"/>
     </row>
@@ -10575,6 +11377,9 @@
       <c r="G434" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H434" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I434" s="16" t="s">
         <v>51</v>
       </c>
@@ -10592,6 +11397,9 @@
       <c r="G435" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H435" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L435" s="4"/>
     </row>
     <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10606,6 +11414,9 @@
       <c r="G436" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H436" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L436" s="4"/>
     </row>
     <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10620,6 +11431,9 @@
       <c r="G437" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H437" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L437" s="4"/>
     </row>
     <row r="438" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -10634,6 +11448,9 @@
       <c r="G438" s="7" t="s">
         <v>294</v>
       </c>
+      <c r="H438" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L438" s="4"/>
     </row>
     <row r="439" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10648,6 +11465,9 @@
       <c r="G439" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H439" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L439" s="4"/>
     </row>
     <row r="440" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -10662,10 +11482,15 @@
       <c r="G440" s="7" t="s">
         <v>302</v>
       </c>
+      <c r="H440" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I440" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L440" s="4"/>
+      <c r="L440" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B441" s="10"/>
@@ -10697,9 +11522,14 @@
       <c r="G443" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H443" s="14"/>
+      <c r="H443" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I443" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K443" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L443" s="4"/>
     </row>
@@ -10715,6 +11545,9 @@
       <c r="G444" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H444" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I444" s="16" t="s">
         <v>51</v>
       </c>
@@ -10732,6 +11565,9 @@
       <c r="G445" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H445" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L445" s="4"/>
     </row>
     <row r="446" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10746,6 +11582,9 @@
       <c r="G446" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H446" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L446" s="4"/>
     </row>
     <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10760,6 +11599,9 @@
       <c r="G447" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H447" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L447" s="4"/>
     </row>
     <row r="448" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -10774,6 +11616,9 @@
       <c r="G448" s="7" t="s">
         <v>294</v>
       </c>
+      <c r="H448" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L448" s="4"/>
     </row>
     <row r="449" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -10788,6 +11633,9 @@
       <c r="G449" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H449" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L449" s="4"/>
     </row>
     <row r="450" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -10802,6 +11650,9 @@
       <c r="G450" s="7" t="s">
         <v>304</v>
       </c>
+      <c r="H450" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L450" s="4"/>
     </row>
     <row r="451" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -10816,6 +11667,9 @@
       <c r="G451" s="7" t="s">
         <v>306</v>
       </c>
+      <c r="H451" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L451" s="4"/>
     </row>
     <row r="452" spans="2:12" x14ac:dyDescent="0.25">
@@ -10830,6 +11684,9 @@
       <c r="G452" s="7" t="s">
         <v>308</v>
       </c>
+      <c r="H452" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L452" s="4"/>
     </row>
     <row r="453" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -10844,6 +11701,9 @@
       <c r="G453" s="7" t="s">
         <v>310</v>
       </c>
+      <c r="H453" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L453" s="4"/>
     </row>
     <row r="454" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -10858,6 +11718,9 @@
       <c r="G454" s="7" t="s">
         <v>312</v>
       </c>
+      <c r="H454" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L454" s="4"/>
     </row>
     <row r="455" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -10872,6 +11735,9 @@
       <c r="G455" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="H455" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L455" s="4"/>
     </row>
     <row r="456" spans="2:12" ht="60" x14ac:dyDescent="0.25">
@@ -10886,6 +11752,9 @@
       <c r="G456" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="H456" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I456" s="7" t="s">
         <v>155</v>
       </c>
@@ -10903,6 +11772,9 @@
       <c r="G457" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="H457" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L457" s="4"/>
     </row>
     <row r="458" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -10917,6 +11789,9 @@
       <c r="G458" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="H458" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I458" s="7" t="s">
         <v>160</v>
       </c>
@@ -10934,6 +11809,9 @@
       <c r="G459" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="H459" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I459" s="7" t="s">
         <v>313</v>
       </c>
@@ -10951,6 +11829,9 @@
       <c r="G460" s="7" t="s">
         <v>165</v>
       </c>
+      <c r="H460" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L460" s="4"/>
     </row>
     <row r="461" spans="2:12" ht="240" x14ac:dyDescent="0.25">
@@ -11199,9 +12080,14 @@
       <c r="G478" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H478" s="14"/>
+      <c r="H478" s="14" t="s">
+        <v>991</v>
+      </c>
       <c r="I478" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K478" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L478" s="4"/>
     </row>
@@ -11217,6 +12103,9 @@
       <c r="G479" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H479" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I479" s="16" t="s">
         <v>51</v>
       </c>
@@ -11234,6 +12123,9 @@
       <c r="G480" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H480" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L480" s="4"/>
     </row>
     <row r="481" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11248,6 +12140,9 @@
       <c r="G481" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H481" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L481" s="4"/>
     </row>
     <row r="482" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11262,6 +12157,9 @@
       <c r="G482" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H482" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L482" s="4"/>
     </row>
     <row r="483" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -11276,6 +12174,9 @@
       <c r="G483" s="7" t="s">
         <v>294</v>
       </c>
+      <c r="H483" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L483" s="4"/>
     </row>
     <row r="484" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11290,6 +12191,9 @@
       <c r="G484" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H484" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L484" s="4"/>
     </row>
     <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11304,6 +12208,9 @@
       <c r="G485" s="7" t="s">
         <v>331</v>
       </c>
+      <c r="H485" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I485" s="7" t="s">
         <v>332</v>
       </c>
@@ -11321,6 +12228,9 @@
       <c r="G486" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="H486" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L486" s="4"/>
     </row>
     <row r="487" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -11335,7 +12245,12 @@
       <c r="G487" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L487" s="4"/>
+      <c r="H487" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L487" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B488" s="10"/>
@@ -11367,9 +12282,14 @@
       <c r="G490" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H490" s="14"/>
+      <c r="H490" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I490" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K490" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L490" s="4"/>
     </row>
@@ -11385,6 +12305,9 @@
       <c r="G491" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H491" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I491" s="16" t="s">
         <v>51</v>
       </c>
@@ -11402,6 +12325,9 @@
       <c r="G492" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H492" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L492" s="4"/>
     </row>
     <row r="493" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11416,6 +12342,9 @@
       <c r="G493" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H493" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L493" s="4"/>
     </row>
     <row r="494" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11430,6 +12359,9 @@
       <c r="G494" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H494" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L494" s="4"/>
     </row>
     <row r="495" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -11444,6 +12376,9 @@
       <c r="G495" s="7" t="s">
         <v>294</v>
       </c>
+      <c r="H495" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L495" s="4"/>
     </row>
     <row r="496" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11458,6 +12393,9 @@
       <c r="G496" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H496" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L496" s="4"/>
     </row>
     <row r="497" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11472,6 +12410,9 @@
       <c r="G497" s="7" t="s">
         <v>331</v>
       </c>
+      <c r="H497" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I497" s="7" t="s">
         <v>332</v>
       </c>
@@ -11489,6 +12430,9 @@
       <c r="G498" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="H498" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L498" s="4"/>
     </row>
     <row r="499" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11503,6 +12447,9 @@
       <c r="G499" s="7" t="s">
         <v>335</v>
       </c>
+      <c r="H499" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L499" s="4"/>
     </row>
     <row r="500" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -11517,7 +12464,12 @@
       <c r="G500" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L500" s="4"/>
+      <c r="H500" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L500" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B501" s="10"/>
@@ -11713,9 +12665,14 @@
       <c r="G514" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H514" s="14"/>
+      <c r="H514" s="14" t="s">
+        <v>991</v>
+      </c>
       <c r="I514" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K514" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L514" s="4"/>
     </row>
@@ -11731,6 +12688,9 @@
       <c r="G515" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H515" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I515" s="16" t="s">
         <v>51</v>
       </c>
@@ -11748,6 +12708,9 @@
       <c r="G516" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H516" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L516" s="4"/>
     </row>
     <row r="517" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11762,6 +12725,9 @@
       <c r="G517" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H517" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L517" s="4"/>
     </row>
     <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11776,6 +12742,9 @@
       <c r="G518" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H518" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L518" s="4"/>
     </row>
     <row r="519" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -11790,6 +12759,9 @@
       <c r="G519" s="7" t="s">
         <v>294</v>
       </c>
+      <c r="H519" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L519" s="4"/>
     </row>
     <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11804,6 +12776,9 @@
       <c r="G520" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H520" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L520" s="4"/>
     </row>
     <row r="521" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -11813,10 +12788,13 @@
         <v>8</v>
       </c>
       <c r="F521" s="7" t="s">
-        <v>340</v>
+        <v>1004</v>
       </c>
       <c r="G521" s="7" t="s">
         <v>331</v>
+      </c>
+      <c r="H521" s="7" t="s">
+        <v>991</v>
       </c>
       <c r="I521" s="7" t="s">
         <v>332</v>
@@ -11835,6 +12813,9 @@
       <c r="G522" s="7" t="s">
         <v>177</v>
       </c>
+      <c r="H522" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L522" s="4"/>
     </row>
     <row r="523" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11849,6 +12830,9 @@
       <c r="G523" s="7" t="s">
         <v>335</v>
       </c>
+      <c r="H523" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L523" s="4"/>
     </row>
     <row r="524" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -11863,7 +12847,12 @@
       <c r="G524" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L524" s="4"/>
+      <c r="H524" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L524" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B525" s="10"/>
@@ -11895,9 +12884,14 @@
       <c r="G527" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H527" s="14"/>
+      <c r="H527" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I527" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K527" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L527" s="4"/>
     </row>
@@ -11913,6 +12907,9 @@
       <c r="G528" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H528" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I528" s="16" t="s">
         <v>51</v>
       </c>
@@ -11930,6 +12927,9 @@
       <c r="G529" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H529" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L529" s="4"/>
     </row>
     <row r="530" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11944,6 +12944,9 @@
       <c r="G530" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H530" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L530" s="4"/>
     </row>
     <row r="531" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11958,6 +12961,9 @@
       <c r="G531" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H531" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L531" s="4"/>
     </row>
     <row r="532" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -11972,6 +12978,9 @@
       <c r="G532" s="7" t="s">
         <v>294</v>
       </c>
+      <c r="H532" s="7" t="s">
+        <v>1005</v>
+      </c>
       <c r="L532" s="4"/>
     </row>
     <row r="533" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11986,6 +12995,9 @@
       <c r="G533" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H533" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L533" s="4"/>
     </row>
     <row r="534" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12000,7 +13012,12 @@
       <c r="G534" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="L534" s="4"/>
+      <c r="H534" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L534" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B535" s="10"/>
@@ -12032,9 +13049,14 @@
       <c r="G537" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H537" s="14"/>
+      <c r="H537" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I537" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K537" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L537" s="4"/>
     </row>
@@ -12050,6 +13072,9 @@
       <c r="G538" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H538" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I538" s="16" t="s">
         <v>51</v>
       </c>
@@ -12067,6 +13092,9 @@
       <c r="G539" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H539" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L539" s="4"/>
     </row>
     <row r="540" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12081,6 +13109,9 @@
       <c r="G540" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H540" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L540" s="4"/>
     </row>
     <row r="541" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12095,6 +13126,9 @@
       <c r="G541" s="7" t="s">
         <v>214</v>
       </c>
+      <c r="H541" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L541" s="4"/>
     </row>
     <row r="542" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -12109,6 +13143,9 @@
       <c r="G542" s="7" t="s">
         <v>294</v>
       </c>
+      <c r="H542" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L542" s="4"/>
     </row>
     <row r="543" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12123,6 +13160,9 @@
       <c r="G543" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H543" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L543" s="4"/>
     </row>
     <row r="544" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12137,7 +13177,12 @@
       <c r="G544" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L544" s="4"/>
+      <c r="H544" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="L544" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B545" s="10"/>
@@ -12169,9 +13214,14 @@
       <c r="G547" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H547" s="14"/>
+      <c r="H547" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I547" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K547" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L547" s="4"/>
     </row>
@@ -12187,6 +13237,9 @@
       <c r="G548" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H548" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I548" s="16" t="s">
         <v>51</v>
       </c>
@@ -12204,6 +13257,9 @@
       <c r="G549" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H549" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L549" s="4"/>
     </row>
     <row r="550" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12218,6 +13274,9 @@
       <c r="G550" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H550" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L550" s="4"/>
     </row>
     <row r="551" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12232,6 +13291,9 @@
       <c r="G551" s="7" t="s">
         <v>361</v>
       </c>
+      <c r="H551" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L551" s="4"/>
     </row>
     <row r="552" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -12246,10 +13308,15 @@
       <c r="G552" s="7" t="s">
         <v>365</v>
       </c>
+      <c r="H552" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I552" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L552" s="4"/>
+      <c r="L552" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B553" s="10"/>
@@ -12281,9 +13348,14 @@
       <c r="G555" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H555" s="14"/>
+      <c r="H555" s="33" t="s">
+        <v>991</v>
+      </c>
       <c r="I555" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="K555" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="L555" s="4"/>
     </row>
@@ -12299,6 +13371,9 @@
       <c r="G556" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H556" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="I556" s="16" t="s">
         <v>51</v>
       </c>
@@ -12316,6 +13391,9 @@
       <c r="G557" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H557" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L557" s="4"/>
     </row>
     <row r="558" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12330,6 +13408,9 @@
       <c r="G558" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H558" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L558" s="4"/>
     </row>
     <row r="559" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12344,6 +13425,9 @@
       <c r="G559" s="7" t="s">
         <v>361</v>
       </c>
+      <c r="H559" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="L559" s="4"/>
     </row>
     <row r="560" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -12357,6 +13441,9 @@
       </c>
       <c r="G560" s="7" t="s">
         <v>367</v>
+      </c>
+      <c r="H560" s="7" t="s">
+        <v>991</v>
       </c>
       <c r="I560" s="7" t="s">
         <v>299</v>
@@ -22817,102 +23904,101 @@
     <hyperlink ref="I321" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="I337" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="I355" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I378" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="I391" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I413" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I423" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I433" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I443" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I478" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I490" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I503" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I514" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I527" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="I537" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I547" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I555" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I563" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I588" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I603" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="I612" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I622" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I653" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I662" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I680" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I690" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I699" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I719" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I709" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I643" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I632" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I730" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I760" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I747" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I775" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I786" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I796" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I806" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I816" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I826" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I739" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I835" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I845" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I854" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I862" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I873" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I883" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I892" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I902" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I911" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I920" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I930" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="I942" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I950" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="I969" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I958" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I978" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I986" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="I996" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I1011" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="I1023" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I1035" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="I1052" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I1061" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="I1070" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="I1079" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="I1088" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="I1099" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="I1110" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="I1121" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="I1134" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="I1144" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="I1157" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="I1169" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I1182" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="I1197" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="I1209" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="I1222" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="I1234" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="I1245" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="I1255" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="I1264" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="I1278" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="I1287" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="I1297" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="I1307" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="I1325" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="I1341" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="I1349" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="I1354" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="I1359" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="I1365" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="I1375" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="I1383" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="I1391" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="I1398" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="I391" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I413" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I423" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I433" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I443" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I478" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I490" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I503" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I514" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I527" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I537" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I547" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I555" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I563" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I588" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I603" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I612" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I622" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I653" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I662" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I680" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I690" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I699" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I719" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I709" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I643" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I632" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I730" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I760" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I747" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I775" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I786" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I796" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I806" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I816" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I826" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I739" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I835" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I845" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I854" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I862" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I873" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I883" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I892" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I902" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I911" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I920" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I930" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I942" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I950" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I969" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I958" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I978" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I986" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I996" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I1011" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I1023" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I1035" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="I1052" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I1061" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I1070" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I1079" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="I1088" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I1099" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="I1110" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="I1121" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I1134" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I1144" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I1157" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="I1169" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I1182" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="I1197" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I1209" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I1222" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I1234" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I1245" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="I1255" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I1264" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I1278" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="I1287" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I1297" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="I1307" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I1325" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="I1341" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="I1349" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="I1354" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="I1359" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="I1365" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="I1375" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="I1383" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="I1391" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="I1398" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId116"/>
+  <pageSetup orientation="portrait" r:id="rId115"/>
 </worksheet>
 </file>
 

--- a/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
+++ b/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9822E-E73A-4C70-B01E-2282D135C608}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F74689-2394-4C60-89D2-9F80EEF1EB01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4298" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1058">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3375,10 +3375,6 @@
     <t>No data is available on the dropdown</t>
   </si>
   <si>
-    <t>The count of VIP,VVIP and high
-priority is wrong</t>
-  </si>
-  <si>
     <t>EQ1-I507</t>
   </si>
   <si>
@@ -3524,6 +3520,49 @@
   </si>
   <si>
     <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>In investigation  dropdown the 
+value is till up to letter 'B'</t>
+  </si>
+  <si>
+    <t>EQ1-I595</t>
+  </si>
+  <si>
+    <t>When the priority is selected as
+"emergency".No data found message is displayed.</t>
+  </si>
+  <si>
+    <t>EQ1-I599</t>
+  </si>
+  <si>
+    <t>When from date is given larger
+range than to date .No error 
+message is displayed</t>
+  </si>
+  <si>
+    <t>The Patient details is displayed</t>
+  </si>
+  <si>
+    <t>The image is not properly loaded</t>
+  </si>
+  <si>
+    <t>The count of VIP,VVIP and high
+priority,emergency is wrong</t>
+  </si>
+  <si>
+    <t>The medical record button is 
+missing</t>
+  </si>
+  <si>
+    <t>EQ1-I614</t>
+  </si>
+  <si>
+    <t>The medical record button is 
+missing,EQ1-I614</t>
+  </si>
+  <si>
+    <t>EQ1-I621</t>
   </si>
 </sst>
 </file>
@@ -3768,16 +3807,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4098,8 +4137,8 @@
   <dimension ref="A1:S1406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1381" sqref="L1381"/>
+      <pane ySplit="1" topLeftCell="A1295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1255" sqref="L1255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4157,14 +4196,14 @@
       <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="R1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="37"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4212,7 +4251,7 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4244,14 +4283,14 @@
       </c>
       <c r="P3" s="4">
         <f>COUNTA(L:L)-1</f>
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S3" s="9">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4285,7 +4324,7 @@
       </c>
       <c r="S4" s="9">
         <f>COUNTIF(L:L,"Blocked")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -4310,7 +4349,7 @@
       </c>
       <c r="S5" s="9">
         <f>COUNTA(M:M)-1</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -6023,7 +6062,12 @@
       <c r="H102" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="L102" s="4"/>
+      <c r="J102" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B103" s="10"/>
@@ -14315,7 +14359,7 @@
       <c r="C603" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D603" s="38" t="s">
+      <c r="D603" s="37" t="s">
         <v>400</v>
       </c>
       <c r="E603" s="22">
@@ -14635,7 +14679,7 @@
         <v>44</v>
       </c>
       <c r="D622" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E622" s="2">
         <v>1</v>
@@ -14730,13 +14774,16 @@
         <v>6</v>
       </c>
       <c r="F627" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G627" s="7" t="s">
         <v>1013</v>
-      </c>
-      <c r="G627" s="7" t="s">
-        <v>1014</v>
       </c>
       <c r="H627" s="7" t="s">
         <v>1003</v>
+      </c>
+      <c r="J627" s="7" t="s">
+        <v>1046</v>
       </c>
       <c r="L627" s="4"/>
     </row>
@@ -15060,13 +15107,13 @@
         <v>414</v>
       </c>
       <c r="J648" s="7" t="s">
-        <v>1008</v>
+        <v>1053</v>
       </c>
       <c r="L648" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M648" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="649" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -15084,7 +15131,7 @@
         <v>416</v>
       </c>
       <c r="J649" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L649" s="4"/>
     </row>
@@ -15241,7 +15288,7 @@
         <v>989</v>
       </c>
       <c r="J659" s="7" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L659" s="4" t="s">
         <v>15</v>
@@ -15419,7 +15466,7 @@
         <v>387</v>
       </c>
       <c r="J670" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L670" s="4"/>
     </row>
@@ -15648,7 +15695,7 @@
         <v>17</v>
       </c>
       <c r="M685" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="686" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -15798,7 +15845,7 @@
         <v>406</v>
       </c>
       <c r="J695" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L695" s="4" t="s">
         <v>17</v>
@@ -15947,7 +15994,7 @@
         <v>410</v>
       </c>
       <c r="J704" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L704" s="4" t="s">
         <v>17</v>
@@ -16270,7 +16317,7 @@
         <v>17</v>
       </c>
       <c r="M724" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="725" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -16741,7 +16788,7 @@
         <v>476</v>
       </c>
       <c r="J756" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="757" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -16939,13 +16986,13 @@
         <v>481</v>
       </c>
       <c r="J771" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L771" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M771" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="772" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -17041,7 +17088,7 @@
         <v>481</v>
       </c>
       <c r="J779" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L779" s="2" t="s">
         <v>19</v>
@@ -17163,7 +17210,7 @@
         <v>481</v>
       </c>
       <c r="J790" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L790" s="2" t="s">
         <v>19</v>
@@ -17289,7 +17336,7 @@
         <v>501</v>
       </c>
       <c r="J800" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L800" s="2" t="s">
         <v>19</v>
@@ -17414,7 +17461,7 @@
         <v>481</v>
       </c>
       <c r="J810" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L810" s="2" t="s">
         <v>19</v>
@@ -17540,7 +17587,7 @@
         <v>481</v>
       </c>
       <c r="J820" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L820" s="2" t="s">
         <v>19</v>
@@ -17667,7 +17714,7 @@
         <v>481</v>
       </c>
       <c r="J830" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L830" s="2" t="s">
         <v>19</v>
@@ -17781,7 +17828,7 @@
         <v>481</v>
       </c>
       <c r="J839" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L839" s="2" t="s">
         <v>19</v>
@@ -17910,7 +17957,7 @@
         <v>481</v>
       </c>
       <c r="J849" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L849" s="2" t="s">
         <v>19</v>
@@ -18021,7 +18068,7 @@
         <v>518</v>
       </c>
       <c r="J858" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L858" s="2" t="s">
         <v>19</v>
@@ -18096,7 +18143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="865" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D865" s="35"/>
       <c r="E865" s="2">
         <v>4</v>
@@ -18108,7 +18155,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="866" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D866" s="35"/>
       <c r="E866" s="2">
         <v>5</v>
@@ -18120,13 +18167,13 @@
         <v>481</v>
       </c>
       <c r="J866" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L866" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="867" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D867" s="35"/>
       <c r="E867" s="2">
         <v>6</v>
@@ -18141,7 +18188,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="868" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D868" s="35"/>
       <c r="E868" s="2">
         <v>7</v>
@@ -18153,7 +18200,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="869" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D869" s="35"/>
       <c r="E869" s="2">
         <v>8</v>
@@ -18165,7 +18212,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="870" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E870" s="2">
         <v>9</v>
       </c>
@@ -18176,7 +18223,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="873" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A873" s="7" t="s">
         <v>525</v>
       </c>
@@ -18198,7 +18245,9 @@
       <c r="G873" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H873" s="14"/>
+      <c r="H873" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I873" s="15" t="s">
         <v>48</v>
       </c>
@@ -18206,7 +18255,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="874" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D874" s="35"/>
       <c r="E874" s="2">
         <v>2</v>
@@ -18217,11 +18266,14 @@
       <c r="G874" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H874" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I874" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="875" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D875" s="35"/>
       <c r="E875" s="2">
         <v>3</v>
@@ -18232,8 +18284,11 @@
       <c r="G875" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="876" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H875" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="876" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D876" s="35"/>
       <c r="E876" s="2">
         <v>4</v>
@@ -18244,8 +18299,11 @@
       <c r="G876" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="877" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H876" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="877" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D877" s="35"/>
       <c r="E877" s="2">
         <v>5</v>
@@ -18256,8 +18314,11 @@
       <c r="G877" s="7" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="878" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="H877" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="878" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="D878" s="35"/>
       <c r="E878" s="2">
         <v>6</v>
@@ -18268,8 +18329,14 @@
       <c r="G878" s="7" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="879" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L878" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M878" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="879" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D879" s="35"/>
       <c r="E879" s="2">
         <v>7</v>
@@ -18284,7 +18351,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="880" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D880" s="35"/>
       <c r="E880" s="2">
         <v>8</v>
@@ -18406,7 +18473,7 @@
         <v>426</v>
       </c>
       <c r="J888" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="889" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -18697,6 +18764,9 @@
       <c r="G908" s="7" t="s">
         <v>542</v>
       </c>
+      <c r="L908" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="911" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A911" s="7" t="s">
@@ -18822,6 +18892,12 @@
       <c r="I917" s="7" t="s">
         <v>548</v>
       </c>
+      <c r="J917" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L917" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="920" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
@@ -18947,9 +19023,6 @@
       <c r="H926" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="L926" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="927" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D927" s="35"/>
@@ -18962,6 +19035,12 @@
       <c r="G927" s="7" t="s">
         <v>556</v>
       </c>
+      <c r="H927" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L927" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="930" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="7" t="s">
@@ -19007,7 +19086,7 @@
         <v>217</v>
       </c>
       <c r="H931" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I931" s="16" t="s">
         <v>51</v>
@@ -19025,7 +19104,7 @@
         <v>216</v>
       </c>
       <c r="H932" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="933" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19040,7 +19119,7 @@
         <v>215</v>
       </c>
       <c r="H933" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="934" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19055,7 +19134,7 @@
         <v>529</v>
       </c>
       <c r="H934" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="935" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19070,7 +19149,7 @@
         <v>563</v>
       </c>
       <c r="H935" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I935" s="7" t="s">
         <v>524</v>
@@ -19088,7 +19167,7 @@
         <v>573</v>
       </c>
       <c r="H936" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="937" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19103,7 +19182,7 @@
         <v>575</v>
       </c>
       <c r="H937" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="938" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19118,7 +19197,7 @@
         <v>523</v>
       </c>
       <c r="H938" s="7" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L938" s="2" t="s">
         <v>15</v>
@@ -19600,7 +19679,7 @@
         <v>426</v>
       </c>
       <c r="J974" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="975" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19734,7 +19813,7 @@
         <v>618</v>
       </c>
       <c r="J983" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L983" s="2" t="s">
         <v>15</v>
@@ -19847,13 +19926,13 @@
         <v>621</v>
       </c>
       <c r="J991" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L991" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M991" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="992" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -19996,7 +20075,7 @@
         <v>627</v>
       </c>
       <c r="J1001" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1002" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20080,7 +20159,7 @@
         <v>636</v>
       </c>
       <c r="J1006" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.25">
@@ -20229,7 +20308,7 @@
         <v>627</v>
       </c>
       <c r="J1016" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1017" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20411,7 +20490,7 @@
         <v>627</v>
       </c>
       <c r="J1028" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1029" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20502,7 +20581,9 @@
       <c r="G1035" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1035" s="14"/>
+      <c r="H1035" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I1035" s="15" t="s">
         <v>48</v>
       </c>
@@ -20521,6 +20602,9 @@
       <c r="G1036" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1036" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1036" s="16" t="s">
         <v>51</v>
       </c>
@@ -20536,6 +20620,9 @@
       <c r="G1037" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1037" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1038" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1038" s="35"/>
@@ -20548,6 +20635,9 @@
       <c r="G1038" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H1038" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1039" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1039" s="35"/>
@@ -20560,6 +20650,9 @@
       <c r="G1039" s="7" t="s">
         <v>661</v>
       </c>
+      <c r="H1039" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1040" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1040" s="35"/>
@@ -20572,8 +20665,11 @@
       <c r="G1040" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="1041" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1040" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1041" s="35"/>
       <c r="E1041" s="2">
         <v>7</v>
@@ -20584,8 +20680,11 @@
       <c r="G1041" s="7" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="1042" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1041" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1042" s="35"/>
       <c r="E1042" s="2">
         <v>8</v>
@@ -20596,8 +20695,11 @@
       <c r="G1042" s="7" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="1043" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1042" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1043" s="35"/>
       <c r="E1043" s="2">
         <v>9</v>
@@ -20608,11 +20710,14 @@
       <c r="G1043" s="7" t="s">
         <v>668</v>
       </c>
+      <c r="H1043" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1043" s="7" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1044" s="35"/>
       <c r="E1044" s="2">
         <v>10</v>
@@ -20623,8 +20728,11 @@
       <c r="G1044" s="7" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="1045" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1044" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1045" s="35"/>
       <c r="E1045" s="2">
         <v>11</v>
@@ -20635,11 +20743,14 @@
       <c r="G1045" s="7" t="s">
         <v>673</v>
       </c>
+      <c r="H1045" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1045" s="7" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1046" s="35"/>
       <c r="E1046" s="2">
         <v>12</v>
@@ -20650,11 +20761,14 @@
       <c r="G1046" s="7" t="s">
         <v>675</v>
       </c>
+      <c r="H1046" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1046" s="7" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1047" s="35"/>
       <c r="E1047" s="2">
         <v>13</v>
@@ -20665,8 +20779,11 @@
       <c r="G1047" s="7" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="1048" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1047" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1048" s="35"/>
       <c r="E1048" s="2">
         <v>14</v>
@@ -20677,8 +20794,11 @@
       <c r="G1048" s="7" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="1049" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1048" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1049" s="35"/>
       <c r="E1049" s="2">
         <v>15</v>
@@ -20689,8 +20809,14 @@
       <c r="G1049" s="7" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="1052" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1049" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1049" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1052" s="7" t="s">
         <v>683</v>
       </c>
@@ -20720,7 +20846,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1053" s="35"/>
       <c r="E1053" s="2">
         <v>2</v>
@@ -20735,7 +20861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1054" s="35"/>
       <c r="E1054" s="2">
         <v>3</v>
@@ -20747,7 +20873,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1055" s="35"/>
       <c r="E1055" s="2">
         <v>4</v>
@@ -20759,7 +20885,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1056" s="35"/>
       <c r="E1056" s="2">
         <v>5</v>
@@ -20945,7 +21071,9 @@
       <c r="G1070" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1070" s="14"/>
+      <c r="H1070" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I1070" s="15" t="s">
         <v>48</v>
       </c>
@@ -20964,6 +21092,9 @@
       <c r="G1071" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1071" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1071" s="16" t="s">
         <v>51</v>
       </c>
@@ -20979,8 +21110,11 @@
       <c r="G1072" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="1073" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1072" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1073" s="35"/>
       <c r="E1073" s="2">
         <v>4</v>
@@ -20991,8 +21125,11 @@
       <c r="G1073" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1074" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1073" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1074" s="35"/>
       <c r="E1074" s="2">
         <v>5</v>
@@ -21003,8 +21140,11 @@
       <c r="G1074" s="7" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="1075" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="H1074" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="D1075" s="35"/>
       <c r="E1075" s="2">
         <v>6</v>
@@ -21015,11 +21155,20 @@
       <c r="G1075" s="7" t="s">
         <v>705</v>
       </c>
+      <c r="H1075" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1075" s="7" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="1076" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1075" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M1075" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D1076" s="35"/>
       <c r="E1076" s="2">
         <v>7</v>
@@ -21030,8 +21179,14 @@
       <c r="G1076" s="7" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="1079" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1076" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1076" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1079" s="7" t="s">
         <v>708</v>
       </c>
@@ -21061,7 +21216,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1080" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1080" s="35"/>
       <c r="E1080" s="2">
         <v>2</v>
@@ -21076,7 +21231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1081" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1081" s="35"/>
       <c r="E1081" s="2">
         <v>3</v>
@@ -21088,7 +21243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1082" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1082" s="35"/>
       <c r="E1082" s="2">
         <v>4</v>
@@ -21100,7 +21255,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="1083" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1083" s="35"/>
       <c r="E1083" s="2">
         <v>5</v>
@@ -21112,7 +21267,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="1084" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1084" s="35"/>
       <c r="E1084" s="2">
         <v>6</v>
@@ -21124,7 +21279,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="1085" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D1085" s="35"/>
       <c r="E1085" s="2">
         <v>7</v>
@@ -21136,7 +21291,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="1088" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1088" s="7" t="s">
         <v>714</v>
       </c>
@@ -21158,7 +21313,9 @@
       <c r="G1088" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1088" s="14"/>
+      <c r="H1088" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1088" s="15" t="s">
         <v>48</v>
       </c>
@@ -21166,7 +21323,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1089" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1089" s="35"/>
       <c r="E1089" s="2">
         <v>2</v>
@@ -21177,11 +21334,14 @@
       <c r="G1089" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1089" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1089" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1090" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1090" s="35"/>
       <c r="E1090" s="2">
         <v>3</v>
@@ -21192,8 +21352,11 @@
       <c r="G1090" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="1091" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1090" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1091" s="35"/>
       <c r="E1091" s="2">
         <v>4</v>
@@ -21204,8 +21367,11 @@
       <c r="G1091" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1092" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1091" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1092" s="35"/>
       <c r="E1092" s="2">
         <v>5</v>
@@ -21216,8 +21382,11 @@
       <c r="G1092" s="7" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="1093" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1092" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1093" s="35"/>
       <c r="E1093" s="2">
         <v>6</v>
@@ -21228,11 +21397,14 @@
       <c r="G1093" s="7" t="s">
         <v>712</v>
       </c>
+      <c r="H1093" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1093" s="7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="1094" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D1094" s="35"/>
       <c r="E1094" s="2">
         <v>7</v>
@@ -21243,8 +21415,11 @@
       <c r="G1094" s="7" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="1095" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1094" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1095" s="35"/>
       <c r="E1095" s="2">
         <v>8</v>
@@ -21255,8 +21430,17 @@
       <c r="G1095" s="7" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="1096" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1095" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L1095" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1095" s="2" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1096" s="35"/>
       <c r="E1096" s="2">
         <v>9</v>
@@ -21271,7 +21455,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="1099" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1099" s="7" t="s">
         <v>722</v>
       </c>
@@ -21293,7 +21477,9 @@
       <c r="G1099" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1099" s="14"/>
+      <c r="H1099" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1099" s="15" t="s">
         <v>48</v>
       </c>
@@ -21301,7 +21487,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1100" s="35"/>
       <c r="E1100" s="2">
         <v>2</v>
@@ -21312,11 +21498,14 @@
       <c r="G1100" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1100" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1100" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1101" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1101" s="35"/>
       <c r="E1101" s="2">
         <v>3</v>
@@ -21327,8 +21516,11 @@
       <c r="G1101" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="1102" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1101" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1102" s="35"/>
       <c r="E1102" s="2">
         <v>4</v>
@@ -21339,8 +21531,11 @@
       <c r="G1102" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1102" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1103" s="35"/>
       <c r="E1103" s="2">
         <v>5</v>
@@ -21351,8 +21546,11 @@
       <c r="G1103" s="7" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="1104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1103" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1104" s="35"/>
       <c r="E1104" s="2">
         <v>6</v>
@@ -21363,11 +21561,14 @@
       <c r="G1104" s="7" t="s">
         <v>712</v>
       </c>
+      <c r="H1104" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1104" s="7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="1105" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1105" s="35"/>
       <c r="E1105" s="2">
         <v>7</v>
@@ -21378,8 +21579,11 @@
       <c r="G1105" s="7" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="1106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1105" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1106" s="35"/>
       <c r="E1106" s="2">
         <v>8</v>
@@ -21390,8 +21594,14 @@
       <c r="G1106" s="7" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="1107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="J1106" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L1106" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="D1107" s="35"/>
       <c r="E1107" s="2">
         <v>9</v>
@@ -21406,7 +21616,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="1110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1110" s="7" t="s">
         <v>728</v>
       </c>
@@ -21428,7 +21638,9 @@
       <c r="G1110" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1110" s="14"/>
+      <c r="H1110" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1110" s="15" t="s">
         <v>48</v>
       </c>
@@ -21436,7 +21648,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1111" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1111" s="35"/>
       <c r="E1111" s="2">
         <v>2</v>
@@ -21447,11 +21659,14 @@
       <c r="G1111" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1111" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1111" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1112" s="35"/>
       <c r="E1112" s="2">
         <v>3</v>
@@ -21462,8 +21677,11 @@
       <c r="G1112" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="1113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1112" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1113" s="35"/>
       <c r="E1113" s="2">
         <v>4</v>
@@ -21474,8 +21692,11 @@
       <c r="G1113" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1113" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1114" s="35"/>
       <c r="E1114" s="2">
         <v>5</v>
@@ -21486,8 +21707,11 @@
       <c r="G1114" s="7" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="1115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1114" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1115" s="35"/>
       <c r="E1115" s="2">
         <v>6</v>
@@ -21498,11 +21722,14 @@
       <c r="G1115" s="7" t="s">
         <v>712</v>
       </c>
+      <c r="H1115" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1115" s="7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="1116" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1116" s="35"/>
       <c r="E1116" s="2">
         <v>7</v>
@@ -21513,8 +21740,11 @@
       <c r="G1116" s="7" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="1117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1116" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1117" s="35"/>
       <c r="E1117" s="2">
         <v>8</v>
@@ -21525,8 +21755,14 @@
       <c r="G1117" s="7" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="1118" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="J1117" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L1117" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D1118" s="35"/>
       <c r="E1118" s="2">
         <v>9</v>
@@ -21538,7 +21774,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="1121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1121" s="7" t="s">
         <v>732</v>
       </c>
@@ -21560,7 +21796,9 @@
       <c r="G1121" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1121" s="14"/>
+      <c r="H1121" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1121" s="15" t="s">
         <v>48</v>
       </c>
@@ -21568,7 +21806,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1122" s="35"/>
       <c r="E1122" s="2">
         <v>2</v>
@@ -21579,11 +21817,14 @@
       <c r="G1122" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1122" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1122" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1123" s="35"/>
       <c r="E1123" s="2">
         <v>3</v>
@@ -21594,8 +21835,11 @@
       <c r="G1123" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="1124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1123" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1124" s="35"/>
       <c r="E1124" s="2">
         <v>4</v>
@@ -21606,8 +21850,11 @@
       <c r="G1124" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1124" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1125" s="35"/>
       <c r="E1125" s="2">
         <v>5</v>
@@ -21618,8 +21865,11 @@
       <c r="G1125" s="7" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="1126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1125" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1126" s="35"/>
       <c r="E1126" s="2">
         <v>6</v>
@@ -21630,11 +21880,14 @@
       <c r="G1126" s="7" t="s">
         <v>712</v>
       </c>
+      <c r="H1126" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1126" s="7" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="1127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1127" s="35"/>
       <c r="E1127" s="2">
         <v>7</v>
@@ -21645,8 +21898,11 @@
       <c r="G1127" s="7" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="1128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1127" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1128" s="35"/>
       <c r="E1128" s="2">
         <v>8</v>
@@ -21657,8 +21913,14 @@
       <c r="G1128" s="7" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="1129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1128" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L1128" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1129" s="35"/>
       <c r="E1129" s="2">
         <v>9</v>
@@ -21670,7 +21932,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="1130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1130" s="35"/>
       <c r="E1130" s="2">
         <v>10</v>
@@ -21682,7 +21944,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="1131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1131" s="35"/>
       <c r="E1131" s="2">
         <v>11</v>
@@ -21694,7 +21956,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="1134" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1134" s="7" t="s">
         <v>740</v>
       </c>
@@ -21726,7 +21988,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1135" s="35"/>
       <c r="E1135" s="2">
         <v>2</v>
@@ -21744,7 +22006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1136" s="35"/>
       <c r="E1136" s="2">
         <v>3</v>
@@ -21850,7 +22112,7 @@
       <c r="C1144" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1144" s="39" t="s">
+      <c r="D1144" s="36" t="s">
         <v>770</v>
       </c>
       <c r="E1144" s="7">
@@ -21874,7 +22136,7 @@
       </c>
     </row>
     <row r="1145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1145" s="39"/>
+      <c r="D1145" s="36"/>
       <c r="E1145" s="7">
         <v>2</v>
       </c>
@@ -21893,7 +22155,7 @@
       <c r="J1145" s="16"/>
     </row>
     <row r="1146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1146" s="39"/>
+      <c r="D1146" s="36"/>
       <c r="E1146" s="7">
         <v>3</v>
       </c>
@@ -21909,7 +22171,7 @@
       <c r="J1146" s="7"/>
     </row>
     <row r="1147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1147" s="39"/>
+      <c r="D1147" s="36"/>
       <c r="E1147" s="7">
         <v>4</v>
       </c>
@@ -21925,7 +22187,7 @@
       <c r="J1147" s="7"/>
     </row>
     <row r="1148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1148" s="39"/>
+      <c r="D1148" s="36"/>
       <c r="E1148" s="7">
         <v>5</v>
       </c>
@@ -21941,7 +22203,7 @@
       <c r="J1148" s="7"/>
     </row>
     <row r="1149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1149" s="39"/>
+      <c r="D1149" s="36"/>
       <c r="E1149" s="7">
         <v>6</v>
       </c>
@@ -21959,7 +22221,7 @@
       </c>
     </row>
     <row r="1150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D1150" s="39"/>
+      <c r="D1150" s="36"/>
       <c r="E1150" s="7">
         <v>7</v>
       </c>
@@ -21976,7 +22238,7 @@
       <c r="J1150" s="7"/>
     </row>
     <row r="1151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1151" s="39"/>
+      <c r="D1151" s="36"/>
       <c r="E1151" s="7">
         <v>8</v>
       </c>
@@ -21993,7 +22255,7 @@
       <c r="J1151" s="7"/>
     </row>
     <row r="1152" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="D1152" s="39"/>
+      <c r="D1152" s="36"/>
       <c r="E1152" s="7">
         <v>9</v>
       </c>
@@ -22011,7 +22273,7 @@
       </c>
     </row>
     <row r="1153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1153" s="39"/>
+      <c r="D1153" s="36"/>
       <c r="E1153" s="7">
         <v>10</v>
       </c>
@@ -22052,7 +22314,9 @@
       <c r="G1157" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1157" s="14"/>
+      <c r="H1157" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1157" s="15" t="s">
         <v>48</v>
       </c>
@@ -22071,6 +22335,9 @@
       <c r="G1158" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1158" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1158" s="16" t="s">
         <v>51</v>
       </c>
@@ -22086,6 +22353,9 @@
       <c r="G1159" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1159" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1159" s="7"/>
     </row>
     <row r="1160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -22099,6 +22369,9 @@
       <c r="G1160" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H1160" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1160" s="7"/>
     </row>
     <row r="1161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -22112,6 +22385,9 @@
       <c r="G1161" s="7" t="s">
         <v>710</v>
       </c>
+      <c r="H1161" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1161" s="7"/>
     </row>
     <row r="1162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -22125,6 +22401,9 @@
       <c r="G1162" s="7" t="s">
         <v>745</v>
       </c>
+      <c r="H1162" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1162" s="7" t="s">
         <v>746</v>
       </c>
@@ -22140,6 +22419,9 @@
       <c r="G1163" s="7" t="s">
         <v>754</v>
       </c>
+      <c r="H1163" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1163" s="2"/>
       <c r="J1163" s="7"/>
     </row>
@@ -22155,7 +22437,12 @@
         <v>755</v>
       </c>
       <c r="I1164" s="2"/>
-      <c r="J1164" s="7"/>
+      <c r="J1164" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L1164" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1165" s="35"/>
@@ -22204,7 +22491,7 @@
       <c r="I1168" s="2"/>
       <c r="J1168" s="7"/>
     </row>
-    <row r="1169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1169" s="7" t="s">
         <v>774</v>
       </c>
@@ -22226,7 +22513,9 @@
       <c r="G1169" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1169" s="14"/>
+      <c r="H1169" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1169" s="15" t="s">
         <v>48</v>
       </c>
@@ -22234,7 +22523,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1170" s="35"/>
       <c r="E1170" s="7">
         <v>2</v>
@@ -22245,11 +22534,14 @@
       <c r="G1170" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1170" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1170" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1171" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1171" s="35"/>
       <c r="E1171" s="7">
         <v>3</v>
@@ -22260,9 +22552,12 @@
       <c r="G1171" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1171" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1171" s="7"/>
     </row>
-    <row r="1172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1172" s="35"/>
       <c r="E1172" s="7">
         <v>4</v>
@@ -22273,9 +22568,12 @@
       <c r="G1172" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H1172" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1172" s="7"/>
     </row>
-    <row r="1173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1173" s="35"/>
       <c r="E1173" s="7">
         <v>5</v>
@@ -22286,9 +22584,12 @@
       <c r="G1173" s="7" t="s">
         <v>710</v>
       </c>
+      <c r="H1173" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1173" s="7"/>
     </row>
-    <row r="1174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1174" s="35"/>
       <c r="E1174" s="7">
         <v>6</v>
@@ -22299,11 +22600,14 @@
       <c r="G1174" s="7" t="s">
         <v>745</v>
       </c>
+      <c r="H1174" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1174" s="7" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="1175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1175" s="35"/>
       <c r="E1175" s="7">
         <v>7</v>
@@ -22314,10 +22618,13 @@
       <c r="G1175" s="7" t="s">
         <v>754</v>
       </c>
+      <c r="H1175" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1175" s="2"/>
       <c r="J1175" s="7"/>
     </row>
-    <row r="1176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1176" s="35"/>
       <c r="E1176" s="7">
         <v>8</v>
@@ -22329,9 +22636,14 @@
         <v>761</v>
       </c>
       <c r="I1176" s="2"/>
-      <c r="J1176" s="7"/>
-    </row>
-    <row r="1177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1176" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L1176" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1177" s="35"/>
       <c r="E1177" s="7">
         <v>9</v>
@@ -22345,7 +22657,7 @@
       <c r="I1177" s="2"/>
       <c r="J1177" s="7"/>
     </row>
-    <row r="1178" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1178" s="35"/>
       <c r="E1178" s="7">
         <v>10</v>
@@ -22359,7 +22671,7 @@
       <c r="I1178" s="2"/>
       <c r="J1178" s="7"/>
     </row>
-    <row r="1179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1179" s="35"/>
       <c r="E1179" s="7">
         <v>11</v>
@@ -22373,18 +22685,18 @@
       <c r="I1179" s="2"/>
       <c r="J1179" s="7"/>
     </row>
-    <row r="1180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1180" s="35"/>
       <c r="E1180" s="7"/>
       <c r="I1180" s="2"/>
       <c r="J1180" s="7"/>
     </row>
-    <row r="1181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1181" s="7"/>
       <c r="I1181" s="2"/>
       <c r="J1181" s="7"/>
     </row>
-    <row r="1182" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1182" s="7" t="s">
         <v>776</v>
       </c>
@@ -22406,7 +22718,9 @@
       <c r="G1182" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1182" s="14"/>
+      <c r="H1182" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1182" s="15" t="s">
         <v>48</v>
       </c>
@@ -22414,7 +22728,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1183" s="35"/>
       <c r="E1183" s="7">
         <v>2</v>
@@ -22425,11 +22739,14 @@
       <c r="G1183" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1183" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1183" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1184" s="35"/>
       <c r="E1184" s="7">
         <v>3</v>
@@ -22440,9 +22757,12 @@
       <c r="G1184" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1184" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1184" s="7"/>
     </row>
-    <row r="1185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1185" s="35"/>
       <c r="E1185" s="7">
         <v>4</v>
@@ -22453,9 +22773,12 @@
       <c r="G1185" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H1185" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1185" s="7"/>
     </row>
-    <row r="1186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1186" s="35"/>
       <c r="E1186" s="7">
         <v>5</v>
@@ -22466,9 +22789,12 @@
       <c r="G1186" s="7" t="s">
         <v>710</v>
       </c>
+      <c r="H1186" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="J1186" s="7"/>
     </row>
-    <row r="1187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1187" s="35"/>
       <c r="E1187" s="7">
         <v>6</v>
@@ -22479,11 +22805,14 @@
       <c r="G1187" s="7" t="s">
         <v>745</v>
       </c>
+      <c r="H1187" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1187" s="7" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="1188" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1188" s="35"/>
       <c r="E1188" s="7">
         <v>7</v>
@@ -22494,10 +22823,13 @@
       <c r="G1188" s="7" t="s">
         <v>754</v>
       </c>
+      <c r="H1188" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1188" s="2"/>
       <c r="J1188" s="7"/>
     </row>
-    <row r="1189" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1189" s="35"/>
       <c r="E1189" s="7">
         <v>8</v>
@@ -22509,9 +22841,14 @@
         <v>764</v>
       </c>
       <c r="I1189" s="2"/>
-      <c r="J1189" s="7"/>
-    </row>
-    <row r="1190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1189" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L1189" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1190" s="35"/>
       <c r="E1190" s="7">
         <v>9</v>
@@ -22525,7 +22862,7 @@
       <c r="I1190" s="2"/>
       <c r="J1190" s="7"/>
     </row>
-    <row r="1191" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1191" s="35"/>
       <c r="E1191" s="7">
         <v>10</v>
@@ -22539,7 +22876,7 @@
       <c r="I1191" s="2"/>
       <c r="J1191" s="7"/>
     </row>
-    <row r="1192" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1192" s="35"/>
       <c r="E1192" s="7">
         <v>11</v>
@@ -22553,7 +22890,7 @@
       <c r="I1192" s="2"/>
       <c r="J1192" s="7"/>
     </row>
-    <row r="1193" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1193" s="35"/>
       <c r="E1193" s="7">
         <v>12</v>
@@ -22567,7 +22904,7 @@
       <c r="I1193" s="2"/>
       <c r="J1193" s="7"/>
     </row>
-    <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1194" s="35"/>
       <c r="E1194" s="7">
         <v>13</v>
@@ -22581,7 +22918,7 @@
       <c r="I1194" s="2"/>
       <c r="J1194" s="7"/>
     </row>
-    <row r="1197" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1197" s="7" t="s">
         <v>779</v>
       </c>
@@ -22611,7 +22948,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1198" s="35"/>
       <c r="E1198" s="2">
         <v>2</v>
@@ -22626,7 +22963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1199" s="35"/>
       <c r="E1199" s="2">
         <v>3</v>
@@ -22638,7 +22975,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1200" s="35"/>
       <c r="E1200" s="2">
         <v>4</v>
@@ -22888,13 +23225,13 @@
         <v>806</v>
       </c>
       <c r="J1219" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L1219" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M1219" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1222" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -23044,7 +23381,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="1234" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1234" s="7" t="s">
         <v>820</v>
       </c>
@@ -23066,7 +23403,9 @@
       <c r="G1234" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1234" s="14"/>
+      <c r="H1234" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1234" s="15" t="s">
         <v>48</v>
       </c>
@@ -23074,7 +23413,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1235" s="35"/>
       <c r="E1235" s="2">
         <v>2</v>
@@ -23085,11 +23424,14 @@
       <c r="G1235" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1235" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1235" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1236" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1236" s="35"/>
       <c r="E1236" s="2">
         <v>3</v>
@@ -23100,8 +23442,11 @@
       <c r="G1236" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="1237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1236" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1237" s="35"/>
       <c r="E1237" s="2">
         <v>4</v>
@@ -23112,8 +23457,11 @@
       <c r="G1237" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1238" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1237" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1238" s="35"/>
       <c r="E1238" s="2">
         <v>5</v>
@@ -23124,8 +23472,11 @@
       <c r="G1238" s="7" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="1239" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="H1238" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="D1239" s="35"/>
       <c r="E1239" s="2">
         <v>6</v>
@@ -23136,11 +23487,14 @@
       <c r="G1239" s="7" t="s">
         <v>825</v>
       </c>
+      <c r="H1239" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1239" s="7" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="1240" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1240" s="35"/>
       <c r="E1240" s="2">
         <v>7</v>
@@ -23151,8 +23505,11 @@
       <c r="G1240" s="7" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="1241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1240" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1241" s="35"/>
       <c r="E1241" s="2">
         <v>8</v>
@@ -23163,8 +23520,11 @@
       <c r="G1241" s="7" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="1242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1241" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1242" s="35"/>
       <c r="E1242" s="2">
         <v>9</v>
@@ -23175,8 +23535,14 @@
       <c r="G1242" s="7" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="1245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1242" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1242" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1245" s="7" t="s">
         <v>831</v>
       </c>
@@ -23199,7 +23565,7 @@
         <v>218</v>
       </c>
       <c r="H1245" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I1245" s="15" t="s">
         <v>48</v>
@@ -23208,7 +23574,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1246" s="35"/>
       <c r="E1246" s="2">
         <v>2</v>
@@ -23226,7 +23592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1247" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1247" s="35"/>
       <c r="E1247" s="2">
         <v>3</v>
@@ -23241,7 +23607,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="1248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1248" s="35"/>
       <c r="E1248" s="2">
         <v>4</v>
@@ -23307,7 +23673,7 @@
         <v>840</v>
       </c>
       <c r="J1251" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -23325,7 +23691,7 @@
         <v>989</v>
       </c>
       <c r="J1252" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L1252" s="2" t="s">
         <v>15</v>
@@ -24327,7 +24693,9 @@
       <c r="G1325" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1325" s="14"/>
+      <c r="H1325" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1325" s="15" t="s">
         <v>48</v>
       </c>
@@ -24343,6 +24711,9 @@
       <c r="G1326" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1326" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1326" s="16" t="s">
         <v>51</v>
       </c>
@@ -24355,6 +24726,9 @@
       <c r="G1327" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1327" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1328" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D1328" s="35"/>
@@ -24364,8 +24738,11 @@
       <c r="G1328" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1329" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1328" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1329" s="35"/>
       <c r="F1329" s="7" t="s">
         <v>913</v>
@@ -24373,8 +24750,11 @@
       <c r="G1329" s="7" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="1330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1329" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1330" s="35"/>
       <c r="F1330" s="7" t="s">
         <v>930</v>
@@ -24382,11 +24762,14 @@
       <c r="G1330" s="7" t="s">
         <v>931</v>
       </c>
+      <c r="H1330" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1330" s="7" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="1331" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1331" s="35"/>
       <c r="F1331" s="7" t="s">
         <v>111</v>
@@ -24394,8 +24777,11 @@
       <c r="G1331" s="7" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="1332" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1331" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1332" s="35"/>
       <c r="F1332" s="7" t="s">
         <v>884</v>
@@ -24403,11 +24789,14 @@
       <c r="G1332" s="7" t="s">
         <v>916</v>
       </c>
+      <c r="H1332" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1332" s="7" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="1333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1333" s="35"/>
       <c r="F1333" s="7" t="s">
         <v>917</v>
@@ -24415,11 +24804,14 @@
       <c r="G1333" s="7" t="s">
         <v>918</v>
       </c>
+      <c r="H1333" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1333" s="7" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="1334" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1334" s="35"/>
       <c r="F1334" s="7" t="s">
         <v>921</v>
@@ -24427,8 +24819,11 @@
       <c r="G1334" s="7" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="1335" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1334" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1335" s="35"/>
       <c r="F1335" s="7" t="s">
         <v>637</v>
@@ -24436,8 +24831,11 @@
       <c r="G1335" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="1336" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1335" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1336" s="35"/>
       <c r="F1336" s="7" t="s">
         <v>924</v>
@@ -24445,11 +24843,14 @@
       <c r="G1336" s="7" t="s">
         <v>926</v>
       </c>
+      <c r="H1336" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1336" s="7" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="1337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1337" s="35"/>
       <c r="F1337" s="7" t="s">
         <v>278</v>
@@ -24457,8 +24858,11 @@
       <c r="G1337" s="7" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="1338" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1337" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D1338" s="35"/>
       <c r="F1338" s="7" t="s">
         <v>928</v>
@@ -24466,8 +24870,14 @@
       <c r="G1338" s="7" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="1339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1338" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1338" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1339" s="26"/>
       <c r="B1339" s="27"/>
       <c r="C1339" s="28"/>
@@ -24478,7 +24888,7 @@
       <c r="H1339" s="26"/>
       <c r="I1339" s="26"/>
     </row>
-    <row r="1341" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1341" s="25" t="s">
         <v>933</v>
       </c>
@@ -24510,7 +24920,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1342" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1342" s="35"/>
       <c r="E1342" s="2">
         <v>2</v>
@@ -24528,7 +24938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1343" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1343" s="35"/>
       <c r="E1343" s="2">
         <v>3</v>
@@ -24543,7 +24953,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="1344" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1344" s="35"/>
       <c r="E1344" s="2">
         <v>4</v>
@@ -24629,7 +25039,9 @@
       <c r="G1349" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H1349" s="14"/>
+      <c r="H1349" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I1349" s="15" t="s">
         <v>48</v>
       </c>
@@ -24648,6 +25060,9 @@
       <c r="G1350" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="H1350" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1350" s="16" t="s">
         <v>51</v>
       </c>
@@ -24663,6 +25078,9 @@
       <c r="G1351" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H1351" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1352" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D1352" s="35"/>
@@ -24675,6 +25093,12 @@
       <c r="G1352" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="L1352" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1352" s="2" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="1354" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1354" s="25" t="s">
@@ -24699,7 +25123,7 @@
         <v>47</v>
       </c>
       <c r="H1354" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I1354" s="15" t="s">
         <v>48</v>
@@ -24756,7 +25180,7 @@
         <v>17</v>
       </c>
       <c r="M1357" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1359" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -24854,7 +25278,7 @@
         <v>17</v>
       </c>
       <c r="M1363" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1365" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -24979,7 +25403,7 @@
         <v>989</v>
       </c>
       <c r="J1371" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1372" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -25137,7 +25561,7 @@
         <v>989</v>
       </c>
       <c r="J1381" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L1381" s="2" t="s">
         <v>15</v>
@@ -25165,7 +25589,9 @@
       <c r="G1383" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1383" s="14"/>
+      <c r="H1383" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I1383" s="15" t="s">
         <v>48</v>
       </c>
@@ -25184,6 +25610,9 @@
       <c r="G1384" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1384" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1384" s="16" t="s">
         <v>51</v>
       </c>
@@ -25199,6 +25628,9 @@
       <c r="G1385" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1385" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1386" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1386" s="35"/>
@@ -25211,6 +25643,9 @@
       <c r="G1386" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H1386" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1387" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1387" s="35"/>
@@ -25223,6 +25658,9 @@
       <c r="G1387" s="7" t="s">
         <v>431</v>
       </c>
+      <c r="H1387" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1388" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1388" s="35"/>
@@ -25235,6 +25673,9 @@
       <c r="G1388" s="7" t="s">
         <v>969</v>
       </c>
+      <c r="H1388" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D1389" s="35"/>
@@ -25244,6 +25685,15 @@
       <c r="F1389" s="7" t="s">
         <v>970</v>
       </c>
+      <c r="G1389" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H1389" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1389" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1391" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1391" s="25" t="s">
@@ -25338,10 +25788,10 @@
         <v>975</v>
       </c>
       <c r="J1396" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L1396" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1398" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -25425,7 +25875,7 @@
         <v>973</v>
       </c>
       <c r="J1402" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L1402" s="2" t="s">
         <v>19</v>
@@ -25482,32 +25932,78 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="122">
-    <mergeCell ref="D1398:D1406"/>
-    <mergeCell ref="D1121:D1131"/>
-    <mergeCell ref="D1144:D1153"/>
-    <mergeCell ref="D1197:D1206"/>
-    <mergeCell ref="D1222:D1231"/>
-    <mergeCell ref="D1209:D1219"/>
-    <mergeCell ref="D1234:D1242"/>
-    <mergeCell ref="D1035:D1049"/>
-    <mergeCell ref="D1391:D1396"/>
-    <mergeCell ref="D653:D659"/>
-    <mergeCell ref="D680:D687"/>
-    <mergeCell ref="D986:D993"/>
-    <mergeCell ref="D969:D975"/>
-    <mergeCell ref="D996:D1008"/>
-    <mergeCell ref="D950:D956"/>
-    <mergeCell ref="D942:D947"/>
-    <mergeCell ref="D930:D938"/>
-    <mergeCell ref="D958:D964"/>
-    <mergeCell ref="D920:D927"/>
-    <mergeCell ref="D719:D726"/>
-    <mergeCell ref="D699:D706"/>
-    <mergeCell ref="D709:D716"/>
-    <mergeCell ref="D662:D676"/>
-    <mergeCell ref="D690:D696"/>
-    <mergeCell ref="D902:D908"/>
-    <mergeCell ref="D978:D983"/>
+    <mergeCell ref="D1011:D1020"/>
+    <mergeCell ref="D1375:D1381"/>
+    <mergeCell ref="D1383:D1389"/>
+    <mergeCell ref="D1325:D1338"/>
+    <mergeCell ref="D1341:D1347"/>
+    <mergeCell ref="D1349:D1352"/>
+    <mergeCell ref="D1354:D1357"/>
+    <mergeCell ref="D1359:D1363"/>
+    <mergeCell ref="D1365:D1373"/>
+    <mergeCell ref="D1307:D1322"/>
+    <mergeCell ref="D1245:D1252"/>
+    <mergeCell ref="D1255:D1261"/>
+    <mergeCell ref="D1079:D1085"/>
+    <mergeCell ref="D1088:D1096"/>
+    <mergeCell ref="D1099:D1107"/>
+    <mergeCell ref="D1110:D1118"/>
+    <mergeCell ref="D1023:D1032"/>
+    <mergeCell ref="D1070:D1076"/>
+    <mergeCell ref="D1061:D1067"/>
+    <mergeCell ref="D1052:D1058"/>
+    <mergeCell ref="D1182:D1194"/>
+    <mergeCell ref="D1134:D1141"/>
+    <mergeCell ref="D1157:D1167"/>
+    <mergeCell ref="D1169:D1180"/>
+    <mergeCell ref="D321:D333"/>
+    <mergeCell ref="D337:D352"/>
+    <mergeCell ref="D1264:D1275"/>
+    <mergeCell ref="D1278:D1284"/>
+    <mergeCell ref="D1287:D1294"/>
+    <mergeCell ref="D1297:D1304"/>
+    <mergeCell ref="D730:D736"/>
+    <mergeCell ref="D739:D744"/>
+    <mergeCell ref="D892:D899"/>
+    <mergeCell ref="D806:D813"/>
+    <mergeCell ref="D816:D823"/>
+    <mergeCell ref="D826:D832"/>
+    <mergeCell ref="D747:D757"/>
+    <mergeCell ref="D760:D772"/>
+    <mergeCell ref="D775:D781"/>
+    <mergeCell ref="D786:D793"/>
+    <mergeCell ref="D796:D802"/>
+    <mergeCell ref="D835:D842"/>
+    <mergeCell ref="D854:D859"/>
+    <mergeCell ref="D862:D869"/>
+    <mergeCell ref="D845:D851"/>
+    <mergeCell ref="D873:D880"/>
+    <mergeCell ref="D883:D889"/>
+    <mergeCell ref="D911:D917"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D490:D500"/>
+    <mergeCell ref="D503:D512"/>
+    <mergeCell ref="D643:D650"/>
+    <mergeCell ref="D514:D524"/>
+    <mergeCell ref="D527:D534"/>
+    <mergeCell ref="D537:D544"/>
+    <mergeCell ref="D632:D639"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="D47:D62"/>
+    <mergeCell ref="D65:D77"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="D478:D487"/>
+    <mergeCell ref="D163:D194"/>
+    <mergeCell ref="D197:D205"/>
+    <mergeCell ref="D209:D218"/>
+    <mergeCell ref="D222:D231"/>
     <mergeCell ref="D129:D136"/>
     <mergeCell ref="D139:D148"/>
     <mergeCell ref="D547:D552"/>
@@ -25532,78 +26028,32 @@
     <mergeCell ref="D355:D375"/>
     <mergeCell ref="D378:D388"/>
     <mergeCell ref="D391:D409"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="D490:D500"/>
-    <mergeCell ref="D503:D512"/>
-    <mergeCell ref="D643:D650"/>
-    <mergeCell ref="D514:D524"/>
-    <mergeCell ref="D527:D534"/>
-    <mergeCell ref="D537:D544"/>
-    <mergeCell ref="D632:D639"/>
-    <mergeCell ref="D32:D44"/>
-    <mergeCell ref="D47:D62"/>
-    <mergeCell ref="D65:D77"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D117:D126"/>
-    <mergeCell ref="D478:D487"/>
-    <mergeCell ref="D163:D194"/>
-    <mergeCell ref="D197:D205"/>
-    <mergeCell ref="D209:D218"/>
-    <mergeCell ref="D222:D231"/>
-    <mergeCell ref="D321:D333"/>
-    <mergeCell ref="D337:D352"/>
-    <mergeCell ref="D1264:D1275"/>
-    <mergeCell ref="D1278:D1284"/>
-    <mergeCell ref="D1287:D1294"/>
-    <mergeCell ref="D1297:D1304"/>
-    <mergeCell ref="D730:D736"/>
-    <mergeCell ref="D739:D744"/>
-    <mergeCell ref="D892:D899"/>
-    <mergeCell ref="D806:D813"/>
-    <mergeCell ref="D816:D823"/>
-    <mergeCell ref="D826:D832"/>
-    <mergeCell ref="D747:D757"/>
-    <mergeCell ref="D760:D772"/>
-    <mergeCell ref="D775:D781"/>
-    <mergeCell ref="D786:D793"/>
-    <mergeCell ref="D796:D802"/>
-    <mergeCell ref="D835:D842"/>
-    <mergeCell ref="D854:D859"/>
-    <mergeCell ref="D862:D869"/>
-    <mergeCell ref="D845:D851"/>
-    <mergeCell ref="D873:D880"/>
-    <mergeCell ref="D883:D889"/>
-    <mergeCell ref="D911:D917"/>
-    <mergeCell ref="D1011:D1020"/>
-    <mergeCell ref="D1375:D1381"/>
-    <mergeCell ref="D1383:D1389"/>
-    <mergeCell ref="D1325:D1338"/>
-    <mergeCell ref="D1341:D1347"/>
-    <mergeCell ref="D1349:D1352"/>
-    <mergeCell ref="D1354:D1357"/>
-    <mergeCell ref="D1359:D1363"/>
-    <mergeCell ref="D1365:D1373"/>
-    <mergeCell ref="D1307:D1322"/>
-    <mergeCell ref="D1245:D1252"/>
-    <mergeCell ref="D1255:D1261"/>
-    <mergeCell ref="D1079:D1085"/>
-    <mergeCell ref="D1088:D1096"/>
-    <mergeCell ref="D1099:D1107"/>
-    <mergeCell ref="D1110:D1118"/>
-    <mergeCell ref="D1023:D1032"/>
-    <mergeCell ref="D1070:D1076"/>
-    <mergeCell ref="D1061:D1067"/>
-    <mergeCell ref="D1052:D1058"/>
-    <mergeCell ref="D1182:D1194"/>
-    <mergeCell ref="D1134:D1141"/>
-    <mergeCell ref="D1157:D1167"/>
-    <mergeCell ref="D1169:D1180"/>
+    <mergeCell ref="D653:D659"/>
+    <mergeCell ref="D680:D687"/>
+    <mergeCell ref="D986:D993"/>
+    <mergeCell ref="D969:D975"/>
+    <mergeCell ref="D996:D1008"/>
+    <mergeCell ref="D950:D956"/>
+    <mergeCell ref="D942:D947"/>
+    <mergeCell ref="D930:D938"/>
+    <mergeCell ref="D958:D964"/>
+    <mergeCell ref="D920:D927"/>
+    <mergeCell ref="D719:D726"/>
+    <mergeCell ref="D699:D706"/>
+    <mergeCell ref="D709:D716"/>
+    <mergeCell ref="D662:D676"/>
+    <mergeCell ref="D690:D696"/>
+    <mergeCell ref="D902:D908"/>
+    <mergeCell ref="D978:D983"/>
+    <mergeCell ref="D1398:D1406"/>
+    <mergeCell ref="D1121:D1131"/>
+    <mergeCell ref="D1144:D1153"/>
+    <mergeCell ref="D1197:D1206"/>
+    <mergeCell ref="D1222:D1231"/>
+    <mergeCell ref="D1209:D1219"/>
+    <mergeCell ref="D1234:D1242"/>
+    <mergeCell ref="D1035:D1049"/>
+    <mergeCell ref="D1391:D1396"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B1365 B1359 B1354 B1349 B1341 B1325 B1307 B1297 B1287 B1278 B1264 B1255 B1245 B1234 B1222 B1209 B1197 B1182 B1169 B1157 B1144 B1134 B1121 B1110 B1099 B1088 B1079 B1070 B1061 B1052 B1035 B1023 B1011 B996 B986 B958 B978 B969 B950 B942 B930 B920 B911 B902 B892 B883 B873 B862 B854 B844:B845 B835 B826 B816 B806 B796 B786 B775 B760 B747 B739 B730 B632 B709 B719 B712 B699 B690 B680 B662 B653 B643 B622 B11:B612 B1375 B1383 B1391 B1398" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
+++ b/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F74689-2394-4C60-89D2-9F80EEF1EB01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2537F1-5410-4481-AC4D-9DA7742DDB40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Radiology" sheetId="1" r:id="rId1"/>
     <sheet name="Remarks" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Radiology!$A$1:$M$10</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4481" uniqueCount="1061">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3563,6 +3566,16 @@
   </si>
   <si>
     <t>EQ1-I621</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>There is no callpatient button in
+the radiology user</t>
+  </si>
+  <si>
+    <t>EQ1-I642</t>
   </si>
 </sst>
 </file>
@@ -4137,8 +4150,8 @@
   <dimension ref="A1:S1406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1255" sqref="L1255"/>
+      <pane ySplit="1" topLeftCell="A1050" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A423" sqref="A423:L431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4264,7 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4283,14 +4296,14 @@
       </c>
       <c r="P3" s="4">
         <f>COUNTA(L:L)-1</f>
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S3" s="9">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4349,7 +4362,7 @@
       </c>
       <c r="S5" s="9">
         <f>COUNTA(M:M)-1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -4788,9 +4801,6 @@
         <v>78</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
-        <v>996</v>
-      </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
@@ -4810,6 +4820,9 @@
       <c r="L30" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="M30" s="2" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
@@ -5384,7 +5397,7 @@
       <c r="B64" s="10"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>27</v>
       </c>
@@ -5417,7 +5430,7 @@
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
       <c r="D66" s="35"/>
       <c r="E66" s="2">
@@ -5437,7 +5450,7 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="D67" s="35"/>
       <c r="E67" s="2">
@@ -5454,7 +5467,7 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="D68" s="35"/>
       <c r="E68" s="2">
@@ -5471,7 +5484,7 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="D69" s="35"/>
       <c r="E69" s="2">
@@ -5488,7 +5501,7 @@
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="D70" s="35"/>
       <c r="E70" s="2">
@@ -5508,7 +5521,7 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="D71" s="35"/>
       <c r="E71" s="2">
@@ -5525,7 +5538,7 @@
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="D72" s="35"/>
       <c r="E72" s="2">
@@ -5542,7 +5555,7 @@
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="D73" s="35"/>
       <c r="E73" s="2">
@@ -5565,7 +5578,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
       <c r="D74" s="35"/>
       <c r="E74" s="2">
@@ -5582,7 +5595,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="D75" s="35"/>
       <c r="E75" s="2">
@@ -5602,7 +5615,7 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
       <c r="D76" s="35"/>
       <c r="E76" s="2">
@@ -5619,7 +5632,7 @@
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
       <c r="D77" s="35"/>
       <c r="E77" s="2">
@@ -5638,15 +5651,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
@@ -5681,6 +5694,10 @@
       <c r="L80" s="4"/>
       <c r="M80" s="2" t="s">
         <v>997</v>
+      </c>
+      <c r="R80" s="2">
+        <f ca="1">R80</f>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6500,6 +6517,9 @@
       <c r="I129" s="15" t="s">
         <v>48</v>
       </c>
+      <c r="K129" s="2" t="s">
+        <v>988</v>
+      </c>
       <c r="L129" s="4"/>
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -7001,9 +7021,6 @@
         <v>1001</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
-        <v>1000</v>
-      </c>
     </row>
     <row r="160" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B160" s="10"/>
@@ -7023,6 +7040,9 @@
       <c r="L160" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="M160" s="2" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B161" s="10"/>
@@ -7742,9 +7762,7 @@
       <c r="H202" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="L202" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L202" s="4"/>
     </row>
     <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B203" s="10"/>
@@ -7795,7 +7813,9 @@
       <c r="H205" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="L205" s="4"/>
+      <c r="L205" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B206" s="10"/>
@@ -13709,7 +13729,9 @@
       <c r="I560" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L560" s="4"/>
+      <c r="L560" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B561" s="10"/>
@@ -20838,7 +20860,7 @@
       <c r="G1052" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1052" s="14"/>
+      <c r="H1052" s="33"/>
       <c r="I1052" s="15" t="s">
         <v>48</v>
       </c>
@@ -21208,7 +21230,9 @@
       <c r="G1079" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1079" s="14"/>
+      <c r="H1079" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I1079" s="15" t="s">
         <v>48</v>
       </c>
@@ -21227,6 +21251,9 @@
       <c r="G1080" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1080" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1080" s="16" t="s">
         <v>51</v>
       </c>
@@ -21242,6 +21269,9 @@
       <c r="G1081" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1081" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1082" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1082" s="35"/>
@@ -21254,6 +21284,9 @@
       <c r="G1082" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H1082" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1083" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1083" s="35"/>
@@ -21266,6 +21299,9 @@
       <c r="G1083" s="7" t="s">
         <v>710</v>
       </c>
+      <c r="H1083" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1084" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1084" s="35"/>
@@ -21278,6 +21314,9 @@
       <c r="G1084" s="7" t="s">
         <v>712</v>
       </c>
+      <c r="H1084" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1085" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D1085" s="35"/>
@@ -21289,6 +21328,12 @@
       </c>
       <c r="G1085" s="7" t="s">
         <v>713</v>
+      </c>
+      <c r="H1085" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1085" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1088" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -23256,7 +23301,9 @@
       <c r="G1222" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1222" s="14"/>
+      <c r="H1222" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1222" s="15" t="s">
         <v>48</v>
       </c>
@@ -23275,6 +23322,9 @@
       <c r="G1223" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1223" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1223" s="16" t="s">
         <v>51</v>
       </c>
@@ -23290,6 +23340,9 @@
       <c r="G1224" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1224" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1225" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1225" s="35"/>
@@ -23302,6 +23355,9 @@
       <c r="G1225" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H1225" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1226" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D1226" s="35"/>
@@ -23314,6 +23370,9 @@
       <c r="G1226" s="7" t="s">
         <v>810</v>
       </c>
+      <c r="H1226" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1227" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1227" s="35"/>
@@ -23326,6 +23385,9 @@
       <c r="G1227" s="7" t="s">
         <v>812</v>
       </c>
+      <c r="H1227" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1227" s="7" t="s">
         <v>797</v>
       </c>
@@ -23341,6 +23403,9 @@
       <c r="G1228" s="7" t="s">
         <v>813</v>
       </c>
+      <c r="H1228" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1228" s="7" t="s">
         <v>815</v>
       </c>
@@ -23356,6 +23421,9 @@
       <c r="G1229" s="7" t="s">
         <v>816</v>
       </c>
+      <c r="H1229" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1230" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1230" s="35"/>
@@ -23368,6 +23436,9 @@
       <c r="G1230" s="7" t="s">
         <v>817</v>
       </c>
+      <c r="H1230" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1231" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="D1231" s="35"/>
@@ -23380,6 +23451,12 @@
       <c r="G1231" s="7" t="s">
         <v>819</v>
       </c>
+      <c r="H1231" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1231" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1234" s="7" t="s">
@@ -23728,6 +23805,9 @@
       <c r="K1255" s="2" t="s">
         <v>988</v>
       </c>
+      <c r="L1255" s="2" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="1256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1256" s="35"/>
@@ -24471,7 +24551,9 @@
       <c r="G1307" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1307" s="14"/>
+      <c r="H1307" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1307" s="15" t="s">
         <v>48</v>
       </c>
@@ -24490,6 +24572,9 @@
       <c r="G1308" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1308" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1308" s="16" t="s">
         <v>51</v>
       </c>
@@ -24505,6 +24590,9 @@
       <c r="G1309" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1309" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1310" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1310" s="35"/>
@@ -24517,6 +24605,9 @@
       <c r="G1310" s="7" t="s">
         <v>883</v>
       </c>
+      <c r="H1310" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1311" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="D1311" s="35"/>
@@ -24529,6 +24620,9 @@
       <c r="G1311" s="7" t="s">
         <v>887</v>
       </c>
+      <c r="H1311" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1311" s="7" t="s">
         <v>885</v>
       </c>
@@ -24544,8 +24638,11 @@
       <c r="G1312" s="7" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="1313" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1312" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1313" s="35"/>
       <c r="E1313" s="2">
         <v>7</v>
@@ -24556,8 +24653,11 @@
       <c r="G1313" s="7" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="1314" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1313" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1314" s="35"/>
       <c r="E1314" s="2">
         <v>8</v>
@@ -24568,11 +24668,14 @@
       <c r="G1314" s="7" t="s">
         <v>892</v>
       </c>
+      <c r="H1314" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1314" s="7" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="1315" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1315" s="35"/>
       <c r="E1315" s="2">
         <v>9</v>
@@ -24583,8 +24686,11 @@
       <c r="G1315" s="7" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="1316" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1315" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1316" s="35"/>
       <c r="E1316" s="2">
         <v>10</v>
@@ -24595,8 +24701,11 @@
       <c r="G1316" s="7" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="1317" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1316" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1317" s="35"/>
       <c r="E1317" s="2">
         <v>11</v>
@@ -24607,8 +24716,11 @@
       <c r="G1317" s="7" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="1318" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1317" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1318" s="35"/>
       <c r="E1318" s="2">
         <v>12</v>
@@ -24619,8 +24731,11 @@
       <c r="G1318" s="7" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="1319" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1318" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1319" s="35"/>
       <c r="E1319" s="2">
         <v>13</v>
@@ -24631,11 +24746,14 @@
       <c r="G1319" s="7" t="s">
         <v>904</v>
       </c>
+      <c r="H1319" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1319" s="7" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="1320" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1320" s="35"/>
       <c r="E1320" s="2">
         <v>14</v>
@@ -24646,11 +24764,14 @@
       <c r="G1320" s="7" t="s">
         <v>905</v>
       </c>
+      <c r="H1320" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1320" s="7" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="1321" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1321" s="35"/>
       <c r="E1321" s="2">
         <v>15</v>
@@ -24661,8 +24782,11 @@
       <c r="G1321" s="7" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="1322" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1321" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1322" s="35"/>
       <c r="E1322" s="2">
         <v>16</v>
@@ -24673,8 +24797,14 @@
       <c r="G1322" s="7" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="1325" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1322" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1322" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1325" s="7" t="s">
         <v>923</v>
       </c>
@@ -24703,7 +24833,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1326" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1326" s="35"/>
       <c r="F1326" s="7" t="s">
         <v>49</v>
@@ -24718,7 +24848,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1327" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1327" s="35"/>
       <c r="F1327" s="7" t="s">
         <v>52</v>
@@ -24730,7 +24860,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="1328" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1328" s="35"/>
       <c r="F1328" s="7" t="s">
         <v>54</v>
@@ -25092,6 +25222,9 @@
       </c>
       <c r="G1352" s="7" t="s">
         <v>943</v>
+      </c>
+      <c r="J1352" s="7" t="s">
+        <v>1059</v>
       </c>
       <c r="L1352" s="2" t="s">
         <v>17</v>

--- a/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
+++ b/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2537F1-5410-4481-AC4D-9DA7742DDB40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD2198-E7DB-49B2-B72F-278D6C765C1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4481" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="1061">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3820,16 +3820,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4149,9 +4149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1050" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A423" sqref="A423:L431"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A880" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K883" sqref="K883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4209,14 +4209,14 @@
       <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="R1" s="39" t="s">
+      <c r="P1" s="36"/>
+      <c r="R1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="39"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -5397,7 +5397,7 @@
       <c r="B64" s="10"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>27</v>
       </c>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
       <c r="D66" s="35"/>
       <c r="E66" s="2">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="D67" s="35"/>
       <c r="E67" s="2">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="D68" s="35"/>
       <c r="E68" s="2">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="D69" s="35"/>
       <c r="E69" s="2">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="D70" s="35"/>
       <c r="E70" s="2">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="D71" s="35"/>
       <c r="E71" s="2">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="D72" s="35"/>
       <c r="E72" s="2">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="D73" s="35"/>
       <c r="E73" s="2">
@@ -5578,7 +5578,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
       <c r="D74" s="35"/>
       <c r="E74" s="2">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="D75" s="35"/>
       <c r="E75" s="2">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
       <c r="D76" s="35"/>
       <c r="E76" s="2">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
       <c r="D77" s="35"/>
       <c r="E77" s="2">
@@ -5651,15 +5651,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
@@ -5694,10 +5694,6 @@
       <c r="L80" s="4"/>
       <c r="M80" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="R80" s="2">
-        <f ca="1">R80</f>
-        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14381,7 +14377,7 @@
       <c r="C603" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D603" s="37" t="s">
+      <c r="D603" s="38" t="s">
         <v>400</v>
       </c>
       <c r="E603" s="22">
@@ -18413,6 +18409,9 @@
       <c r="I883" s="15" t="s">
         <v>48</v>
       </c>
+      <c r="K883" s="2" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="884" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D884" s="35"/>
@@ -22157,7 +22156,7 @@
       <c r="C1144" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1144" s="36" t="s">
+      <c r="D1144" s="39" t="s">
         <v>770</v>
       </c>
       <c r="E1144" s="7">
@@ -22181,7 +22180,7 @@
       </c>
     </row>
     <row r="1145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1145" s="36"/>
+      <c r="D1145" s="39"/>
       <c r="E1145" s="7">
         <v>2</v>
       </c>
@@ -22200,7 +22199,7 @@
       <c r="J1145" s="16"/>
     </row>
     <row r="1146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1146" s="36"/>
+      <c r="D1146" s="39"/>
       <c r="E1146" s="7">
         <v>3</v>
       </c>
@@ -22216,7 +22215,7 @@
       <c r="J1146" s="7"/>
     </row>
     <row r="1147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1147" s="36"/>
+      <c r="D1147" s="39"/>
       <c r="E1147" s="7">
         <v>4</v>
       </c>
@@ -22232,7 +22231,7 @@
       <c r="J1147" s="7"/>
     </row>
     <row r="1148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1148" s="36"/>
+      <c r="D1148" s="39"/>
       <c r="E1148" s="7">
         <v>5</v>
       </c>
@@ -22248,7 +22247,7 @@
       <c r="J1148" s="7"/>
     </row>
     <row r="1149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1149" s="36"/>
+      <c r="D1149" s="39"/>
       <c r="E1149" s="7">
         <v>6</v>
       </c>
@@ -22266,7 +22265,7 @@
       </c>
     </row>
     <row r="1150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D1150" s="36"/>
+      <c r="D1150" s="39"/>
       <c r="E1150" s="7">
         <v>7</v>
       </c>
@@ -22283,7 +22282,7 @@
       <c r="J1150" s="7"/>
     </row>
     <row r="1151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1151" s="36"/>
+      <c r="D1151" s="39"/>
       <c r="E1151" s="7">
         <v>8</v>
       </c>
@@ -22300,7 +22299,7 @@
       <c r="J1151" s="7"/>
     </row>
     <row r="1152" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="D1152" s="36"/>
+      <c r="D1152" s="39"/>
       <c r="E1152" s="7">
         <v>9</v>
       </c>
@@ -22318,7 +22317,7 @@
       </c>
     </row>
     <row r="1153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1153" s="36"/>
+      <c r="D1153" s="39"/>
       <c r="E1153" s="7">
         <v>10</v>
       </c>
@@ -26065,6 +26064,104 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="122">
+    <mergeCell ref="D1398:D1406"/>
+    <mergeCell ref="D1121:D1131"/>
+    <mergeCell ref="D1144:D1153"/>
+    <mergeCell ref="D1197:D1206"/>
+    <mergeCell ref="D1222:D1231"/>
+    <mergeCell ref="D1209:D1219"/>
+    <mergeCell ref="D1234:D1242"/>
+    <mergeCell ref="D1035:D1049"/>
+    <mergeCell ref="D1391:D1396"/>
+    <mergeCell ref="D653:D659"/>
+    <mergeCell ref="D680:D687"/>
+    <mergeCell ref="D986:D993"/>
+    <mergeCell ref="D969:D975"/>
+    <mergeCell ref="D996:D1008"/>
+    <mergeCell ref="D950:D956"/>
+    <mergeCell ref="D942:D947"/>
+    <mergeCell ref="D930:D938"/>
+    <mergeCell ref="D958:D964"/>
+    <mergeCell ref="D920:D927"/>
+    <mergeCell ref="D719:D726"/>
+    <mergeCell ref="D699:D706"/>
+    <mergeCell ref="D709:D716"/>
+    <mergeCell ref="D662:D676"/>
+    <mergeCell ref="D690:D696"/>
+    <mergeCell ref="D902:D908"/>
+    <mergeCell ref="D978:D983"/>
+    <mergeCell ref="D129:D136"/>
+    <mergeCell ref="D139:D148"/>
+    <mergeCell ref="D547:D552"/>
+    <mergeCell ref="D555:D560"/>
+    <mergeCell ref="D572:D577"/>
+    <mergeCell ref="D580:D585"/>
+    <mergeCell ref="D603:D609"/>
+    <mergeCell ref="D612:D619"/>
+    <mergeCell ref="D622:D629"/>
+    <mergeCell ref="D563:D568"/>
+    <mergeCell ref="D588:D600"/>
+    <mergeCell ref="D151:D160"/>
+    <mergeCell ref="D234:D249"/>
+    <mergeCell ref="D252:D270"/>
+    <mergeCell ref="D443:D475"/>
+    <mergeCell ref="D433:D440"/>
+    <mergeCell ref="D273:D288"/>
+    <mergeCell ref="D292:D304"/>
+    <mergeCell ref="D307:D318"/>
+    <mergeCell ref="D413:D420"/>
+    <mergeCell ref="D423:D430"/>
+    <mergeCell ref="D355:D375"/>
+    <mergeCell ref="D378:D388"/>
+    <mergeCell ref="D391:D409"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D490:D500"/>
+    <mergeCell ref="D503:D512"/>
+    <mergeCell ref="D643:D650"/>
+    <mergeCell ref="D514:D524"/>
+    <mergeCell ref="D527:D534"/>
+    <mergeCell ref="D537:D544"/>
+    <mergeCell ref="D632:D639"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="D47:D62"/>
+    <mergeCell ref="D65:D77"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="D478:D487"/>
+    <mergeCell ref="D163:D194"/>
+    <mergeCell ref="D197:D205"/>
+    <mergeCell ref="D209:D218"/>
+    <mergeCell ref="D222:D231"/>
+    <mergeCell ref="D321:D333"/>
+    <mergeCell ref="D337:D352"/>
+    <mergeCell ref="D1264:D1275"/>
+    <mergeCell ref="D1278:D1284"/>
+    <mergeCell ref="D1287:D1294"/>
+    <mergeCell ref="D1297:D1304"/>
+    <mergeCell ref="D730:D736"/>
+    <mergeCell ref="D739:D744"/>
+    <mergeCell ref="D892:D899"/>
+    <mergeCell ref="D806:D813"/>
+    <mergeCell ref="D816:D823"/>
+    <mergeCell ref="D826:D832"/>
+    <mergeCell ref="D747:D757"/>
+    <mergeCell ref="D760:D772"/>
+    <mergeCell ref="D775:D781"/>
+    <mergeCell ref="D786:D793"/>
+    <mergeCell ref="D796:D802"/>
+    <mergeCell ref="D835:D842"/>
+    <mergeCell ref="D854:D859"/>
+    <mergeCell ref="D862:D869"/>
+    <mergeCell ref="D845:D851"/>
+    <mergeCell ref="D873:D880"/>
+    <mergeCell ref="D883:D889"/>
+    <mergeCell ref="D911:D917"/>
     <mergeCell ref="D1011:D1020"/>
     <mergeCell ref="D1375:D1381"/>
     <mergeCell ref="D1383:D1389"/>
@@ -26089,104 +26186,6 @@
     <mergeCell ref="D1134:D1141"/>
     <mergeCell ref="D1157:D1167"/>
     <mergeCell ref="D1169:D1180"/>
-    <mergeCell ref="D321:D333"/>
-    <mergeCell ref="D337:D352"/>
-    <mergeCell ref="D1264:D1275"/>
-    <mergeCell ref="D1278:D1284"/>
-    <mergeCell ref="D1287:D1294"/>
-    <mergeCell ref="D1297:D1304"/>
-    <mergeCell ref="D730:D736"/>
-    <mergeCell ref="D739:D744"/>
-    <mergeCell ref="D892:D899"/>
-    <mergeCell ref="D806:D813"/>
-    <mergeCell ref="D816:D823"/>
-    <mergeCell ref="D826:D832"/>
-    <mergeCell ref="D747:D757"/>
-    <mergeCell ref="D760:D772"/>
-    <mergeCell ref="D775:D781"/>
-    <mergeCell ref="D786:D793"/>
-    <mergeCell ref="D796:D802"/>
-    <mergeCell ref="D835:D842"/>
-    <mergeCell ref="D854:D859"/>
-    <mergeCell ref="D862:D869"/>
-    <mergeCell ref="D845:D851"/>
-    <mergeCell ref="D873:D880"/>
-    <mergeCell ref="D883:D889"/>
-    <mergeCell ref="D911:D917"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="D490:D500"/>
-    <mergeCell ref="D503:D512"/>
-    <mergeCell ref="D643:D650"/>
-    <mergeCell ref="D514:D524"/>
-    <mergeCell ref="D527:D534"/>
-    <mergeCell ref="D537:D544"/>
-    <mergeCell ref="D632:D639"/>
-    <mergeCell ref="D32:D44"/>
-    <mergeCell ref="D47:D62"/>
-    <mergeCell ref="D65:D77"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D117:D126"/>
-    <mergeCell ref="D478:D487"/>
-    <mergeCell ref="D163:D194"/>
-    <mergeCell ref="D197:D205"/>
-    <mergeCell ref="D209:D218"/>
-    <mergeCell ref="D222:D231"/>
-    <mergeCell ref="D129:D136"/>
-    <mergeCell ref="D139:D148"/>
-    <mergeCell ref="D547:D552"/>
-    <mergeCell ref="D555:D560"/>
-    <mergeCell ref="D572:D577"/>
-    <mergeCell ref="D580:D585"/>
-    <mergeCell ref="D603:D609"/>
-    <mergeCell ref="D612:D619"/>
-    <mergeCell ref="D622:D629"/>
-    <mergeCell ref="D563:D568"/>
-    <mergeCell ref="D588:D600"/>
-    <mergeCell ref="D151:D160"/>
-    <mergeCell ref="D234:D249"/>
-    <mergeCell ref="D252:D270"/>
-    <mergeCell ref="D443:D475"/>
-    <mergeCell ref="D433:D440"/>
-    <mergeCell ref="D273:D288"/>
-    <mergeCell ref="D292:D304"/>
-    <mergeCell ref="D307:D318"/>
-    <mergeCell ref="D413:D420"/>
-    <mergeCell ref="D423:D430"/>
-    <mergeCell ref="D355:D375"/>
-    <mergeCell ref="D378:D388"/>
-    <mergeCell ref="D391:D409"/>
-    <mergeCell ref="D653:D659"/>
-    <mergeCell ref="D680:D687"/>
-    <mergeCell ref="D986:D993"/>
-    <mergeCell ref="D969:D975"/>
-    <mergeCell ref="D996:D1008"/>
-    <mergeCell ref="D950:D956"/>
-    <mergeCell ref="D942:D947"/>
-    <mergeCell ref="D930:D938"/>
-    <mergeCell ref="D958:D964"/>
-    <mergeCell ref="D920:D927"/>
-    <mergeCell ref="D719:D726"/>
-    <mergeCell ref="D699:D706"/>
-    <mergeCell ref="D709:D716"/>
-    <mergeCell ref="D662:D676"/>
-    <mergeCell ref="D690:D696"/>
-    <mergeCell ref="D902:D908"/>
-    <mergeCell ref="D978:D983"/>
-    <mergeCell ref="D1398:D1406"/>
-    <mergeCell ref="D1121:D1131"/>
-    <mergeCell ref="D1144:D1153"/>
-    <mergeCell ref="D1197:D1206"/>
-    <mergeCell ref="D1222:D1231"/>
-    <mergeCell ref="D1209:D1219"/>
-    <mergeCell ref="D1234:D1242"/>
-    <mergeCell ref="D1035:D1049"/>
-    <mergeCell ref="D1391:D1396"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B1365 B1359 B1354 B1349 B1341 B1325 B1307 B1297 B1287 B1278 B1264 B1255 B1245 B1234 B1222 B1209 B1197 B1182 B1169 B1157 B1144 B1134 B1121 B1110 B1099 B1088 B1079 B1070 B1061 B1052 B1035 B1023 B1011 B996 B986 B958 B978 B969 B950 B942 B930 B920 B911 B902 B892 B883 B873 B862 B854 B844:B845 B835 B826 B816 B806 B796 B786 B775 B760 B747 B739 B730 B632 B709 B719 B712 B699 B690 B680 B662 B653 B643 B622 B11:B612 B1375 B1383 B1391 B1398" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
+++ b/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBD2198-E7DB-49B2-B72F-278D6C765C1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6634E-339A-4BEE-9EC2-3E12275F57CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="1063">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3565,17 +3565,22 @@
 missing,EQ1-I614</t>
   </si>
   <si>
-    <t>EQ1-I621</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>There is no callpatient button in
-the radiology user</t>
-  </si>
-  <si>
     <t>EQ1-I642</t>
+  </si>
+  <si>
+    <t>EQ1-I649</t>
+  </si>
+  <si>
+    <t>EQ1-I651</t>
+  </si>
+  <si>
+    <t>EQ1-I652</t>
+  </si>
+  <si>
+    <t>EQ1-I659</t>
   </si>
 </sst>
 </file>
@@ -3820,16 +3825,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4149,9 +4154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A880" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K883" sqref="K883"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4209,14 +4214,14 @@
       <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="R1" s="37" t="s">
+      <c r="P1" s="38"/>
+      <c r="R1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="37"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4296,14 +4301,14 @@
       </c>
       <c r="P3" s="4">
         <f>COUNTA(L:L)-1</f>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S3" s="9">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4362,7 +4367,7 @@
       </c>
       <c r="S5" s="9">
         <f>COUNTA(M:M)-1</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -12089,6 +12094,9 @@
       <c r="G461" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="H461" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I461" s="7" t="s">
         <v>168</v>
       </c>
@@ -12106,6 +12114,9 @@
       <c r="G462" s="7" t="s">
         <v>170</v>
       </c>
+      <c r="H462" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L462" s="4"/>
     </row>
     <row r="463" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -12120,6 +12131,9 @@
       <c r="G463" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="H463" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L463" s="4"/>
     </row>
     <row r="464" spans="2:12" x14ac:dyDescent="0.25">
@@ -12134,9 +12148,12 @@
       <c r="G464" s="7" t="s">
         <v>315</v>
       </c>
+      <c r="H464" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L464" s="4"/>
     </row>
-    <row r="465" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B465" s="10"/>
       <c r="D465" s="35"/>
       <c r="E465" s="2">
@@ -12148,9 +12165,12 @@
       <c r="G465" s="7" t="s">
         <v>317</v>
       </c>
+      <c r="H465" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L465" s="4"/>
     </row>
-    <row r="466" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B466" s="10"/>
       <c r="D466" s="35"/>
       <c r="E466" s="2">
@@ -12162,9 +12182,12 @@
       <c r="G466" s="7" t="s">
         <v>319</v>
       </c>
+      <c r="H466" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L466" s="4"/>
     </row>
-    <row r="467" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B467" s="10"/>
       <c r="D467" s="35"/>
       <c r="E467" s="2">
@@ -12176,9 +12199,12 @@
       <c r="G467" s="7" t="s">
         <v>173</v>
       </c>
+      <c r="H467" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L467" s="4"/>
     </row>
-    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B468" s="10"/>
       <c r="D468" s="35"/>
       <c r="E468" s="2">
@@ -12190,9 +12216,12 @@
       <c r="G468" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="H468" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L468" s="4"/>
     </row>
-    <row r="469" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B469" s="10"/>
       <c r="D469" s="35"/>
       <c r="E469" s="2">
@@ -12204,9 +12233,12 @@
       <c r="G469" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H469" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L469" s="4"/>
     </row>
-    <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B470" s="10"/>
       <c r="D470" s="35"/>
       <c r="E470" s="2">
@@ -12218,9 +12250,12 @@
       <c r="G470" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H470" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L470" s="4"/>
     </row>
-    <row r="471" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B471" s="10"/>
       <c r="D471" s="35"/>
       <c r="E471" s="2">
@@ -12232,9 +12267,14 @@
       <c r="G471" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="L471" s="4"/>
-    </row>
-    <row r="472" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L471" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M471" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B472" s="10"/>
       <c r="D472" s="35"/>
       <c r="E472" s="2">
@@ -12251,7 +12291,7 @@
       </c>
       <c r="L472" s="4"/>
     </row>
-    <row r="473" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B473" s="10"/>
       <c r="D473" s="35"/>
       <c r="E473" s="2">
@@ -12265,7 +12305,7 @@
       </c>
       <c r="L473" s="4"/>
     </row>
-    <row r="474" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B474" s="10"/>
       <c r="D474" s="35"/>
       <c r="E474" s="2">
@@ -12279,7 +12319,7 @@
       </c>
       <c r="L474" s="4"/>
     </row>
-    <row r="475" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B475" s="10"/>
       <c r="D475" s="35"/>
       <c r="E475" s="2">
@@ -12293,15 +12333,15 @@
       </c>
       <c r="L475" s="4"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B476" s="10"/>
       <c r="L476" s="4"/>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B477" s="10"/>
       <c r="L477" s="4"/>
     </row>
-    <row r="478" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>325</v>
       </c>
@@ -12334,7 +12374,7 @@
       </c>
       <c r="L478" s="4"/>
     </row>
-    <row r="479" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B479" s="10"/>
       <c r="D479" s="35"/>
       <c r="E479" s="2">
@@ -12354,7 +12394,7 @@
       </c>
       <c r="L479" s="4"/>
     </row>
-    <row r="480" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B480" s="10"/>
       <c r="D480" s="35"/>
       <c r="E480" s="2">
@@ -14377,7 +14417,7 @@
       <c r="C603" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D603" s="38" t="s">
+      <c r="D603" s="37" t="s">
         <v>400</v>
       </c>
       <c r="E603" s="22">
@@ -20859,7 +20899,9 @@
       <c r="G1052" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1052" s="33"/>
+      <c r="H1052" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I1052" s="15" t="s">
         <v>48</v>
       </c>
@@ -20878,6 +20920,9 @@
       <c r="G1053" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1053" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1053" s="16" t="s">
         <v>51</v>
       </c>
@@ -20893,6 +20938,9 @@
       <c r="G1054" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1054" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1055" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1055" s="35"/>
@@ -20905,6 +20953,9 @@
       <c r="G1055" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H1055" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1056" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1056" s="35"/>
@@ -20917,8 +20968,11 @@
       <c r="G1056" s="7" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="1057" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1056" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1057" s="35"/>
       <c r="E1057" s="2">
         <v>6</v>
@@ -20929,8 +20983,14 @@
       <c r="G1057" s="7" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="1058" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1057" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1057" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D1058" s="35"/>
       <c r="E1058" s="2">
         <v>7</v>
@@ -20942,7 +21002,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="1061" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1061" s="7" t="s">
         <v>691</v>
       </c>
@@ -20974,7 +21034,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1062" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1062" s="35"/>
       <c r="E1062" s="2">
         <v>2</v>
@@ -20992,7 +21052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1063" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1063" s="35"/>
       <c r="E1063" s="2">
         <v>3</v>
@@ -21007,7 +21067,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="1064" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1064" s="35"/>
       <c r="E1064" s="2">
         <v>4</v>
@@ -21022,7 +21082,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="1065" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1065" s="35"/>
       <c r="E1065" s="2">
         <v>5</v>
@@ -21037,7 +21097,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="1066" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D1066" s="35"/>
       <c r="E1066" s="2">
         <v>6</v>
@@ -21052,7 +21112,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="1067" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="D1067" s="35"/>
       <c r="E1067" s="2">
         <v>7</v>
@@ -21070,7 +21130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1070" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1070" s="7" t="s">
         <v>699</v>
       </c>
@@ -21102,7 +21162,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1071" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1071" s="35"/>
       <c r="E1071" s="2">
         <v>2</v>
@@ -21120,7 +21180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1072" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1072" s="35"/>
       <c r="E1072" s="2">
         <v>3</v>
@@ -22156,7 +22216,7 @@
       <c r="C1144" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1144" s="39" t="s">
+      <c r="D1144" s="36" t="s">
         <v>770</v>
       </c>
       <c r="E1144" s="7">
@@ -22180,7 +22240,7 @@
       </c>
     </row>
     <row r="1145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1145" s="39"/>
+      <c r="D1145" s="36"/>
       <c r="E1145" s="7">
         <v>2</v>
       </c>
@@ -22199,7 +22259,7 @@
       <c r="J1145" s="16"/>
     </row>
     <row r="1146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1146" s="39"/>
+      <c r="D1146" s="36"/>
       <c r="E1146" s="7">
         <v>3</v>
       </c>
@@ -22215,7 +22275,7 @@
       <c r="J1146" s="7"/>
     </row>
     <row r="1147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1147" s="39"/>
+      <c r="D1147" s="36"/>
       <c r="E1147" s="7">
         <v>4</v>
       </c>
@@ -22231,7 +22291,7 @@
       <c r="J1147" s="7"/>
     </row>
     <row r="1148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1148" s="39"/>
+      <c r="D1148" s="36"/>
       <c r="E1148" s="7">
         <v>5</v>
       </c>
@@ -22247,7 +22307,7 @@
       <c r="J1148" s="7"/>
     </row>
     <row r="1149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1149" s="39"/>
+      <c r="D1149" s="36"/>
       <c r="E1149" s="7">
         <v>6</v>
       </c>
@@ -22265,7 +22325,7 @@
       </c>
     </row>
     <row r="1150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D1150" s="39"/>
+      <c r="D1150" s="36"/>
       <c r="E1150" s="7">
         <v>7</v>
       </c>
@@ -22282,7 +22342,7 @@
       <c r="J1150" s="7"/>
     </row>
     <row r="1151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1151" s="39"/>
+      <c r="D1151" s="36"/>
       <c r="E1151" s="7">
         <v>8</v>
       </c>
@@ -22299,7 +22359,7 @@
       <c r="J1151" s="7"/>
     </row>
     <row r="1152" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="D1152" s="39"/>
+      <c r="D1152" s="36"/>
       <c r="E1152" s="7">
         <v>9</v>
       </c>
@@ -22317,7 +22377,7 @@
       </c>
     </row>
     <row r="1153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1153" s="39"/>
+      <c r="D1153" s="36"/>
       <c r="E1153" s="7">
         <v>10</v>
       </c>
@@ -22984,7 +23044,9 @@
       <c r="G1197" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1197" s="14"/>
+      <c r="H1197" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I1197" s="15" t="s">
         <v>48</v>
       </c>
@@ -23003,6 +23065,9 @@
       <c r="G1198" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H1198" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1198" s="16" t="s">
         <v>51</v>
       </c>
@@ -23018,6 +23083,9 @@
       <c r="G1199" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H1199" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="1200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D1200" s="35"/>
@@ -23030,8 +23098,11 @@
       <c r="G1200" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="1201" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1200" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1201" s="35"/>
       <c r="E1201" s="2">
         <v>5</v>
@@ -23042,8 +23113,11 @@
       <c r="G1201" s="7" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="1202" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1201" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1202" s="35"/>
       <c r="E1202" s="2">
         <v>6</v>
@@ -23054,11 +23128,14 @@
       <c r="G1202" s="7" t="s">
         <v>745</v>
       </c>
+      <c r="H1202" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1202" s="7" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="1203" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D1203" s="35"/>
       <c r="E1203" s="2">
         <v>7</v>
@@ -23069,9 +23146,12 @@
       <c r="G1203" s="7" t="s">
         <v>754</v>
       </c>
+      <c r="H1203" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I1203" s="2"/>
     </row>
-    <row r="1204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1204" s="35"/>
       <c r="E1204" s="2">
         <v>8</v>
@@ -23082,8 +23162,11 @@
       <c r="G1204" s="7" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="1205" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1204" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1205" s="35"/>
       <c r="E1205" s="2">
         <v>9</v>
@@ -23097,8 +23180,14 @@
       <c r="I1205" s="7" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="1206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1205" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1206" s="35"/>
       <c r="E1206" s="2">
         <v>10</v>
@@ -23110,7 +23199,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="1209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1209" s="7" t="s">
         <v>791</v>
       </c>
@@ -23140,7 +23229,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1210" s="35"/>
       <c r="E1210" s="2">
         <v>2</v>
@@ -23155,7 +23244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1211" s="35"/>
       <c r="E1211" s="2">
         <v>3</v>
@@ -23167,7 +23256,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D1212" s="35"/>
       <c r="E1212" s="2">
         <v>4</v>
@@ -23179,7 +23268,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="1213" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D1213" s="35"/>
       <c r="E1213" s="2">
         <v>5</v>
@@ -23191,7 +23280,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="1214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="D1214" s="35"/>
       <c r="E1214" s="2">
         <v>6</v>
@@ -23206,7 +23295,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="1215" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D1215" s="35"/>
       <c r="E1215" s="2">
         <v>7</v>
@@ -23218,7 +23307,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="1216" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="D1216" s="35"/>
       <c r="E1216" s="2">
         <v>8</v>
@@ -23805,7 +23894,7 @@
         <v>988</v>
       </c>
       <c r="L1255" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -24800,7 +24889,7 @@
         <v>17</v>
       </c>
       <c r="M1322" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1325" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -25222,14 +25311,12 @@
       <c r="G1352" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="J1352" s="7" t="s">
-        <v>1059</v>
-      </c>
+      <c r="J1352" s="7"/>
       <c r="L1352" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M1352" s="2" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1354" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26064,32 +26151,78 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="122">
-    <mergeCell ref="D1398:D1406"/>
-    <mergeCell ref="D1121:D1131"/>
-    <mergeCell ref="D1144:D1153"/>
-    <mergeCell ref="D1197:D1206"/>
-    <mergeCell ref="D1222:D1231"/>
-    <mergeCell ref="D1209:D1219"/>
-    <mergeCell ref="D1234:D1242"/>
-    <mergeCell ref="D1035:D1049"/>
-    <mergeCell ref="D1391:D1396"/>
-    <mergeCell ref="D653:D659"/>
-    <mergeCell ref="D680:D687"/>
-    <mergeCell ref="D986:D993"/>
-    <mergeCell ref="D969:D975"/>
-    <mergeCell ref="D996:D1008"/>
-    <mergeCell ref="D950:D956"/>
-    <mergeCell ref="D942:D947"/>
-    <mergeCell ref="D930:D938"/>
-    <mergeCell ref="D958:D964"/>
-    <mergeCell ref="D920:D927"/>
-    <mergeCell ref="D719:D726"/>
-    <mergeCell ref="D699:D706"/>
-    <mergeCell ref="D709:D716"/>
-    <mergeCell ref="D662:D676"/>
-    <mergeCell ref="D690:D696"/>
-    <mergeCell ref="D902:D908"/>
-    <mergeCell ref="D978:D983"/>
+    <mergeCell ref="D1011:D1020"/>
+    <mergeCell ref="D1375:D1381"/>
+    <mergeCell ref="D1383:D1389"/>
+    <mergeCell ref="D1325:D1338"/>
+    <mergeCell ref="D1341:D1347"/>
+    <mergeCell ref="D1349:D1352"/>
+    <mergeCell ref="D1354:D1357"/>
+    <mergeCell ref="D1359:D1363"/>
+    <mergeCell ref="D1365:D1373"/>
+    <mergeCell ref="D1307:D1322"/>
+    <mergeCell ref="D1245:D1252"/>
+    <mergeCell ref="D1255:D1261"/>
+    <mergeCell ref="D1079:D1085"/>
+    <mergeCell ref="D1088:D1096"/>
+    <mergeCell ref="D1099:D1107"/>
+    <mergeCell ref="D1110:D1118"/>
+    <mergeCell ref="D1023:D1032"/>
+    <mergeCell ref="D1070:D1076"/>
+    <mergeCell ref="D1061:D1067"/>
+    <mergeCell ref="D1052:D1058"/>
+    <mergeCell ref="D1182:D1194"/>
+    <mergeCell ref="D1134:D1141"/>
+    <mergeCell ref="D1157:D1167"/>
+    <mergeCell ref="D1169:D1180"/>
+    <mergeCell ref="D321:D333"/>
+    <mergeCell ref="D337:D352"/>
+    <mergeCell ref="D1264:D1275"/>
+    <mergeCell ref="D1278:D1284"/>
+    <mergeCell ref="D1287:D1294"/>
+    <mergeCell ref="D1297:D1304"/>
+    <mergeCell ref="D730:D736"/>
+    <mergeCell ref="D739:D744"/>
+    <mergeCell ref="D892:D899"/>
+    <mergeCell ref="D806:D813"/>
+    <mergeCell ref="D816:D823"/>
+    <mergeCell ref="D826:D832"/>
+    <mergeCell ref="D747:D757"/>
+    <mergeCell ref="D760:D772"/>
+    <mergeCell ref="D775:D781"/>
+    <mergeCell ref="D786:D793"/>
+    <mergeCell ref="D796:D802"/>
+    <mergeCell ref="D835:D842"/>
+    <mergeCell ref="D854:D859"/>
+    <mergeCell ref="D862:D869"/>
+    <mergeCell ref="D845:D851"/>
+    <mergeCell ref="D873:D880"/>
+    <mergeCell ref="D883:D889"/>
+    <mergeCell ref="D911:D917"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D490:D500"/>
+    <mergeCell ref="D503:D512"/>
+    <mergeCell ref="D643:D650"/>
+    <mergeCell ref="D514:D524"/>
+    <mergeCell ref="D527:D534"/>
+    <mergeCell ref="D537:D544"/>
+    <mergeCell ref="D632:D639"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="D47:D62"/>
+    <mergeCell ref="D65:D77"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="D478:D487"/>
+    <mergeCell ref="D163:D194"/>
+    <mergeCell ref="D197:D205"/>
+    <mergeCell ref="D209:D218"/>
+    <mergeCell ref="D222:D231"/>
     <mergeCell ref="D129:D136"/>
     <mergeCell ref="D139:D148"/>
     <mergeCell ref="D547:D552"/>
@@ -26114,78 +26247,32 @@
     <mergeCell ref="D355:D375"/>
     <mergeCell ref="D378:D388"/>
     <mergeCell ref="D391:D409"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="D490:D500"/>
-    <mergeCell ref="D503:D512"/>
-    <mergeCell ref="D643:D650"/>
-    <mergeCell ref="D514:D524"/>
-    <mergeCell ref="D527:D534"/>
-    <mergeCell ref="D537:D544"/>
-    <mergeCell ref="D632:D639"/>
-    <mergeCell ref="D32:D44"/>
-    <mergeCell ref="D47:D62"/>
-    <mergeCell ref="D65:D77"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D117:D126"/>
-    <mergeCell ref="D478:D487"/>
-    <mergeCell ref="D163:D194"/>
-    <mergeCell ref="D197:D205"/>
-    <mergeCell ref="D209:D218"/>
-    <mergeCell ref="D222:D231"/>
-    <mergeCell ref="D321:D333"/>
-    <mergeCell ref="D337:D352"/>
-    <mergeCell ref="D1264:D1275"/>
-    <mergeCell ref="D1278:D1284"/>
-    <mergeCell ref="D1287:D1294"/>
-    <mergeCell ref="D1297:D1304"/>
-    <mergeCell ref="D730:D736"/>
-    <mergeCell ref="D739:D744"/>
-    <mergeCell ref="D892:D899"/>
-    <mergeCell ref="D806:D813"/>
-    <mergeCell ref="D816:D823"/>
-    <mergeCell ref="D826:D832"/>
-    <mergeCell ref="D747:D757"/>
-    <mergeCell ref="D760:D772"/>
-    <mergeCell ref="D775:D781"/>
-    <mergeCell ref="D786:D793"/>
-    <mergeCell ref="D796:D802"/>
-    <mergeCell ref="D835:D842"/>
-    <mergeCell ref="D854:D859"/>
-    <mergeCell ref="D862:D869"/>
-    <mergeCell ref="D845:D851"/>
-    <mergeCell ref="D873:D880"/>
-    <mergeCell ref="D883:D889"/>
-    <mergeCell ref="D911:D917"/>
-    <mergeCell ref="D1011:D1020"/>
-    <mergeCell ref="D1375:D1381"/>
-    <mergeCell ref="D1383:D1389"/>
-    <mergeCell ref="D1325:D1338"/>
-    <mergeCell ref="D1341:D1347"/>
-    <mergeCell ref="D1349:D1352"/>
-    <mergeCell ref="D1354:D1357"/>
-    <mergeCell ref="D1359:D1363"/>
-    <mergeCell ref="D1365:D1373"/>
-    <mergeCell ref="D1307:D1322"/>
-    <mergeCell ref="D1245:D1252"/>
-    <mergeCell ref="D1255:D1261"/>
-    <mergeCell ref="D1079:D1085"/>
-    <mergeCell ref="D1088:D1096"/>
-    <mergeCell ref="D1099:D1107"/>
-    <mergeCell ref="D1110:D1118"/>
-    <mergeCell ref="D1023:D1032"/>
-    <mergeCell ref="D1070:D1076"/>
-    <mergeCell ref="D1061:D1067"/>
-    <mergeCell ref="D1052:D1058"/>
-    <mergeCell ref="D1182:D1194"/>
-    <mergeCell ref="D1134:D1141"/>
-    <mergeCell ref="D1157:D1167"/>
-    <mergeCell ref="D1169:D1180"/>
+    <mergeCell ref="D653:D659"/>
+    <mergeCell ref="D680:D687"/>
+    <mergeCell ref="D986:D993"/>
+    <mergeCell ref="D969:D975"/>
+    <mergeCell ref="D996:D1008"/>
+    <mergeCell ref="D950:D956"/>
+    <mergeCell ref="D942:D947"/>
+    <mergeCell ref="D930:D938"/>
+    <mergeCell ref="D958:D964"/>
+    <mergeCell ref="D920:D927"/>
+    <mergeCell ref="D719:D726"/>
+    <mergeCell ref="D699:D706"/>
+    <mergeCell ref="D709:D716"/>
+    <mergeCell ref="D662:D676"/>
+    <mergeCell ref="D690:D696"/>
+    <mergeCell ref="D902:D908"/>
+    <mergeCell ref="D978:D983"/>
+    <mergeCell ref="D1398:D1406"/>
+    <mergeCell ref="D1121:D1131"/>
+    <mergeCell ref="D1144:D1153"/>
+    <mergeCell ref="D1197:D1206"/>
+    <mergeCell ref="D1222:D1231"/>
+    <mergeCell ref="D1209:D1219"/>
+    <mergeCell ref="D1234:D1242"/>
+    <mergeCell ref="D1035:D1049"/>
+    <mergeCell ref="D1391:D1396"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B1365 B1359 B1354 B1349 B1341 B1325 B1307 B1297 B1287 B1278 B1264 B1255 B1245 B1234 B1222 B1209 B1197 B1182 B1169 B1157 B1144 B1134 B1121 B1110 B1099 B1088 B1079 B1070 B1061 B1052 B1035 B1023 B1011 B996 B986 B958 B978 B969 B950 B942 B930 B920 B911 B902 B892 B883 B873 B862 B854 B844:B845 B835 B826 B816 B806 B796 B786 B775 B760 B747 B739 B730 B632 B709 B719 B712 B699 B690 B680 B662 B653 B643 B622 B11:B612 B1375 B1383 B1391 B1398" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
+++ b/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6634E-339A-4BEE-9EC2-3E12275F57CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C501E-58F3-47F0-A416-63B8C258A033}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="1064">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3407,36 +3407,6 @@
     <t>EQ1-I521</t>
   </si>
   <si>
-    <t>Screen shows "No Result Found"</t>
-  </si>
-  <si>
-    <t>EQ1-I121</t>
-  </si>
-  <si>
-    <t>EQ1-I121,The screen shows "No
-Result Found"</t>
-  </si>
-  <si>
-    <t>EQ1-I121,The screen shows "No 
-Result Found"</t>
-  </si>
-  <si>
-    <t>EQ1-I121,The Screen shows "No 
-Result Found"</t>
-  </si>
-  <si>
-    <t>EQ1-I121,screen shows "No Result
-Found"</t>
-  </si>
-  <si>
-    <t>EQ1-I121,screen shows "No Result 
-Found</t>
-  </si>
-  <si>
-    <t>EQ1-I121,Screen shows "No result
-found"</t>
-  </si>
-  <si>
     <t>EQ1-I528,Incorrect message is 
 shown when date range is given wrong</t>
   </si>
@@ -3581,6 +3551,37 @@
   </si>
   <si>
     <t>EQ1-I659</t>
+  </si>
+  <si>
+    <t>The name of the radiologist is not 
+listed .</t>
+  </si>
+  <si>
+    <t>When from date has larger range 
+than to date no error message is
+displayed.</t>
+  </si>
+  <si>
+    <t>EQ1-I714</t>
+  </si>
+  <si>
+    <t>EQ1-I716</t>
+  </si>
+  <si>
+    <t>The PACS Result view is not 
+possible</t>
+  </si>
+  <si>
+    <t>EQ1-I717</t>
+  </si>
+  <si>
+    <t>EQ1-I720</t>
+  </si>
+  <si>
+    <t>EQ1-I528</t>
+  </si>
+  <si>
+    <t>EQ1-I547</t>
   </si>
 </sst>
 </file>
@@ -4155,8 +4156,8 @@
   <dimension ref="A1:S1406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F182" sqref="F182"/>
+      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A795" sqref="A795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4269,7 +4270,7 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4342,7 +4343,7 @@
       </c>
       <c r="S4" s="9">
         <f>COUNTIF(L:L,"Blocked")</f>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -4367,7 +4368,7 @@
       </c>
       <c r="S5" s="9">
         <f>COUNTA(M:M)-1</f>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -6081,7 +6082,7 @@
         <v>989</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>15</v>
@@ -12271,7 +12272,7 @@
         <v>17</v>
       </c>
       <c r="M471" s="2" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="472" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -14329,6 +14330,9 @@
       <c r="G596" s="7" t="s">
         <v>386</v>
       </c>
+      <c r="H596" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I596" s="7" t="s">
         <v>387</v>
       </c>
@@ -14336,7 +14340,7 @@
         <v>1007</v>
       </c>
       <c r="L596" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="597" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14351,6 +14355,9 @@
       <c r="G597" s="7" t="s">
         <v>389</v>
       </c>
+      <c r="H597" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I597" s="7" t="s">
         <v>429</v>
       </c>
@@ -14368,6 +14375,9 @@
       <c r="G598" s="7" t="s">
         <v>382</v>
       </c>
+      <c r="H598" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L598" s="4"/>
     </row>
     <row r="599" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14382,6 +14392,9 @@
       <c r="G599" s="7" t="s">
         <v>383</v>
       </c>
+      <c r="H599" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L599" s="4"/>
     </row>
     <row r="600" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14396,6 +14409,9 @@
       <c r="G600" s="7" t="s">
         <v>390</v>
       </c>
+      <c r="H600" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="L600" s="4"/>
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.25">
@@ -14841,7 +14857,7 @@
         <v>1003</v>
       </c>
       <c r="J627" s="7" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="L627" s="4"/>
     </row>
@@ -15165,7 +15181,7 @@
         <v>414</v>
       </c>
       <c r="J648" s="7" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="L648" s="4" t="s">
         <v>17</v>
@@ -15346,7 +15362,7 @@
         <v>989</v>
       </c>
       <c r="J659" s="7" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="L659" s="4" t="s">
         <v>15</v>
@@ -16846,7 +16862,7 @@
         <v>476</v>
       </c>
       <c r="J756" s="7" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="757" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -16889,7 +16905,9 @@
       <c r="G760" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H760" s="14"/>
+      <c r="H760" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I760" s="18" t="s">
         <v>485</v>
       </c>
@@ -16908,6 +16926,9 @@
       <c r="G761" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H761" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I761" s="16" t="s">
         <v>51</v>
       </c>
@@ -16923,6 +16944,9 @@
       <c r="G762" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H762" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="763" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D763" s="35"/>
@@ -16935,6 +16959,9 @@
       <c r="G763" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H763" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="764" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D764" s="35"/>
@@ -16947,6 +16974,9 @@
       <c r="G764" s="7" t="s">
         <v>457</v>
       </c>
+      <c r="H764" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="765" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D765" s="35"/>
@@ -16959,6 +16989,9 @@
       <c r="G765" s="7" t="s">
         <v>467</v>
       </c>
+      <c r="H765" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I765" s="7" t="s">
         <v>471</v>
       </c>
@@ -16974,6 +17007,9 @@
       <c r="G766" s="7" t="s">
         <v>469</v>
       </c>
+      <c r="H766" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I766" s="7" t="s">
         <v>470</v>
       </c>
@@ -16989,6 +17025,9 @@
       <c r="G767" s="7" t="s">
         <v>561</v>
       </c>
+      <c r="H767" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="768" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D768" s="35"/>
@@ -17001,11 +17040,14 @@
       <c r="G768" s="7" t="s">
         <v>473</v>
       </c>
+      <c r="H768" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I768" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="769" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D769" s="35"/>
       <c r="E769" s="2">
         <v>10</v>
@@ -17016,11 +17058,14 @@
       <c r="G769" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="H769" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I769" s="7" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="770" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="D770" s="35"/>
       <c r="E770" s="2">
         <v>11</v>
@@ -17031,8 +17076,11 @@
       <c r="G770" s="7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="771" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H770" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D771" s="35"/>
       <c r="E771" s="2">
         <v>12</v>
@@ -17043,17 +17091,11 @@
       <c r="G771" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J771" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L771" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M771" s="2" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="772" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H771" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D772" s="35"/>
       <c r="E772" s="2">
         <v>13</v>
@@ -17064,8 +17106,14 @@
       <c r="G772" s="7" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="775" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H772" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L772" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="7" t="s">
         <v>483</v>
       </c>
@@ -17087,7 +17135,9 @@
       <c r="G775" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H775" s="14"/>
+      <c r="H775" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I775" s="18" t="s">
         <v>485</v>
       </c>
@@ -17095,7 +17145,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="776" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D776" s="35"/>
       <c r="E776" s="2">
         <v>2</v>
@@ -17106,11 +17156,14 @@
       <c r="G776" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H776" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I776" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="777" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D777" s="35"/>
       <c r="E777" s="2">
         <v>3</v>
@@ -17121,8 +17174,11 @@
       <c r="G777" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="778" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H777" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D778" s="35"/>
       <c r="E778" s="2">
         <v>4</v>
@@ -17133,8 +17189,11 @@
       <c r="G778" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="779" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H778" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D779" s="35"/>
       <c r="E779" s="2">
         <v>5</v>
@@ -17145,14 +17204,11 @@
       <c r="G779" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J779" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L779" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="780" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H779" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="780" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D780" s="35"/>
       <c r="E780" s="2">
         <v>6</v>
@@ -17163,8 +17219,11 @@
       <c r="G780" s="7" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="781" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="H780" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D781" s="35"/>
       <c r="E781" s="2">
         <v>7</v>
@@ -17175,8 +17234,11 @@
       <c r="G781" s="7" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="782" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H781" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="782" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E782" s="2">
         <v>8</v>
       </c>
@@ -17185,6 +17247,12 @@
       </c>
       <c r="G782" s="7" t="s">
         <v>493</v>
+      </c>
+      <c r="H782" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L782" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="786" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -17209,7 +17277,9 @@
       <c r="G786" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H786" s="14"/>
+      <c r="H786" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I786" s="15" t="s">
         <v>48</v>
       </c>
@@ -17228,6 +17298,9 @@
       <c r="G787" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H787" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I787" s="16" t="s">
         <v>51</v>
       </c>
@@ -17243,6 +17316,9 @@
       <c r="G788" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H788" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="789" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D789" s="35"/>
@@ -17255,6 +17331,9 @@
       <c r="G789" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H789" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="790" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D790" s="35"/>
@@ -17267,11 +17346,8 @@
       <c r="G790" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J790" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L790" s="2" t="s">
-        <v>19</v>
+      <c r="H790" s="7" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="791" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -17285,6 +17361,12 @@
       <c r="G791" s="7" t="s">
         <v>396</v>
       </c>
+      <c r="H791" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J791" s="7" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="792" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D792" s="35"/>
@@ -17297,6 +17379,9 @@
       <c r="G792" s="7" t="s">
         <v>404</v>
       </c>
+      <c r="H792" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I792" s="7" t="s">
         <v>398</v>
       </c>
@@ -17312,6 +17397,12 @@
       <c r="G793" s="7" t="s">
         <v>424</v>
       </c>
+      <c r="H793" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L793" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="796" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A796" s="7" t="s">
@@ -17335,7 +17426,9 @@
       <c r="G796" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H796" s="14"/>
+      <c r="H796" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I796" s="15" t="s">
         <v>48</v>
       </c>
@@ -17354,6 +17447,9 @@
       <c r="G797" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H797" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I797" s="16" t="s">
         <v>51</v>
       </c>
@@ -17369,6 +17465,9 @@
       <c r="G798" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="H798" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="799" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D799" s="35"/>
@@ -17381,6 +17480,9 @@
       <c r="G799" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="H799" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="800" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D800" s="35"/>
@@ -17393,14 +17495,12 @@
       <c r="G800" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="J800" s="7" t="s">
-        <v>1018</v>
-      </c>
-      <c r="L800" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="801" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="H800" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J800" s="7"/>
+    </row>
+    <row r="801" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="D801" s="35"/>
       <c r="E801" s="2">
         <v>6</v>
@@ -17411,8 +17511,11 @@
       <c r="G801" s="7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="802" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H801" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="802" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D802" s="35"/>
       <c r="E802" s="2">
         <v>7</v>
@@ -17423,11 +17526,14 @@
       <c r="G802" s="7" t="s">
         <v>404</v>
       </c>
+      <c r="H802" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I802" s="7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="803" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E803" s="2">
         <v>8</v>
       </c>
@@ -17437,8 +17543,14 @@
       <c r="G803" s="7" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="806" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H803" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L803" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="806" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A806" s="7" t="s">
         <v>502</v>
       </c>
@@ -17460,7 +17572,9 @@
       <c r="G806" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H806" s="14"/>
+      <c r="H806" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I806" s="15" t="s">
         <v>48</v>
       </c>
@@ -17468,7 +17582,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="807" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D807" s="35"/>
       <c r="E807" s="2">
         <v>2</v>
@@ -17479,11 +17593,14 @@
       <c r="G807" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H807" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I807" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="808" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D808" s="35"/>
       <c r="E808" s="2">
         <v>3</v>
@@ -17494,8 +17611,11 @@
       <c r="G808" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="809" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H808" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D809" s="35"/>
       <c r="E809" s="2">
         <v>4</v>
@@ -17506,8 +17626,11 @@
       <c r="G809" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="810" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H809" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D810" s="35"/>
       <c r="E810" s="2">
         <v>5</v>
@@ -17518,14 +17641,12 @@
       <c r="G810" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J810" s="7" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L810" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="811" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="H810" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J810" s="7"/>
+    </row>
+    <row r="811" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="D811" s="35"/>
       <c r="E811" s="2">
         <v>6</v>
@@ -17536,8 +17657,11 @@
       <c r="G811" s="7" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="812" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H811" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D812" s="35"/>
       <c r="E812" s="2">
         <v>7</v>
@@ -17548,11 +17672,14 @@
       <c r="G812" s="7" t="s">
         <v>404</v>
       </c>
+      <c r="H812" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I812" s="7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="813" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D813" s="35"/>
       <c r="E813" s="2">
         <v>8</v>
@@ -17563,8 +17690,17 @@
       <c r="G813" s="7" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="816" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H813" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L813" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M813" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="816" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A816" s="7" t="s">
         <v>505</v>
       </c>
@@ -17586,7 +17722,9 @@
       <c r="G816" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H816" s="14"/>
+      <c r="H816" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I816" s="15" t="s">
         <v>48</v>
       </c>
@@ -17594,7 +17732,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="817" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D817" s="35"/>
       <c r="E817" s="2">
         <v>2</v>
@@ -17605,11 +17743,14 @@
       <c r="G817" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H817" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I817" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="818" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D818" s="35"/>
       <c r="E818" s="2">
         <v>3</v>
@@ -17620,8 +17761,11 @@
       <c r="G818" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="819" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H818" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="819" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D819" s="35"/>
       <c r="E819" s="2">
         <v>4</v>
@@ -17632,8 +17776,11 @@
       <c r="G819" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="820" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H819" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="820" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D820" s="35"/>
       <c r="E820" s="2">
         <v>5</v>
@@ -17644,14 +17791,12 @@
       <c r="G820" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J820" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="L820" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="821" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="H820" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J820" s="7"/>
+    </row>
+    <row r="821" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="D821" s="35"/>
       <c r="E821" s="2">
         <v>6</v>
@@ -17662,8 +17807,11 @@
       <c r="G821" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="822" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H821" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="822" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D822" s="35"/>
       <c r="E822" s="2">
         <v>7</v>
@@ -17674,11 +17822,14 @@
       <c r="G822" s="7" t="s">
         <v>404</v>
       </c>
+      <c r="H822" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I822" s="7" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="823" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D823" s="35"/>
       <c r="E823" s="2">
         <v>8</v>
@@ -17689,9 +17840,15 @@
       <c r="G823" s="7" t="s">
         <v>449</v>
       </c>
+      <c r="H823" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I823" s="2"/>
-    </row>
-    <row r="826" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L823" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="826" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A826" s="7" t="s">
         <v>508</v>
       </c>
@@ -17713,7 +17870,9 @@
       <c r="G826" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H826" s="14"/>
+      <c r="H826" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I826" s="15" t="s">
         <v>48</v>
       </c>
@@ -17721,7 +17880,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="827" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D827" s="35"/>
       <c r="E827" s="2">
         <v>2</v>
@@ -17732,11 +17891,14 @@
       <c r="G827" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H827" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I827" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="828" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D828" s="35"/>
       <c r="E828" s="2">
         <v>3</v>
@@ -17747,8 +17909,11 @@
       <c r="G828" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="829" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H828" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="829" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D829" s="35"/>
       <c r="E829" s="2">
         <v>4</v>
@@ -17759,8 +17924,11 @@
       <c r="G829" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="830" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H829" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="830" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D830" s="35"/>
       <c r="E830" s="2">
         <v>5</v>
@@ -17771,14 +17939,12 @@
       <c r="G830" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J830" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L830" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="831" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H830" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J830" s="7"/>
+    </row>
+    <row r="831" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D831" s="35"/>
       <c r="E831" s="2">
         <v>6</v>
@@ -17789,11 +17955,17 @@
       <c r="G831" s="7" t="s">
         <v>422</v>
       </c>
+      <c r="H831" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I831" s="7" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="832" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="J831" s="7" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="832" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="D832" s="35"/>
       <c r="E832" s="2">
         <v>7</v>
@@ -17804,8 +17976,17 @@
       <c r="G832" s="7" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="835" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H832" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L832" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M832" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="835" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A835" s="7" t="s">
         <v>509</v>
       </c>
@@ -17827,7 +18008,9 @@
       <c r="G835" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H835" s="14"/>
+      <c r="H835" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I835" s="15" t="s">
         <v>48</v>
       </c>
@@ -17835,7 +18018,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="836" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D836" s="35"/>
       <c r="E836" s="2">
         <v>2</v>
@@ -17846,11 +18029,14 @@
       <c r="G836" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H836" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I836" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="837" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D837" s="35"/>
       <c r="E837" s="2">
         <v>3</v>
@@ -17861,8 +18047,11 @@
       <c r="G837" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="838" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H837" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="838" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D838" s="35"/>
       <c r="E838" s="2">
         <v>4</v>
@@ -17873,8 +18062,11 @@
       <c r="G838" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="839" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H838" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D839" s="35"/>
       <c r="E839" s="2">
         <v>5</v>
@@ -17885,14 +18077,12 @@
       <c r="G839" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J839" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L839" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="840" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="H839" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J839" s="7"/>
+    </row>
+    <row r="840" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="D840" s="35"/>
       <c r="E840" s="2">
         <v>6</v>
@@ -17903,8 +18093,14 @@
       <c r="G840" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="841" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L840" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M840" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="841" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D841" s="35"/>
       <c r="E841" s="2">
         <v>7</v>
@@ -17919,7 +18115,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="842" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D842" s="35"/>
       <c r="E842" s="2">
         <v>8</v>
@@ -17931,10 +18127,10 @@
         <v>425</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B844" s="7"/>
     </row>
-    <row r="845" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A845" s="7" t="s">
         <v>511</v>
       </c>
@@ -17956,7 +18152,9 @@
       <c r="G845" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H845" s="14"/>
+      <c r="H845" s="14" t="s">
+        <v>989</v>
+      </c>
       <c r="I845" s="15" t="s">
         <v>48</v>
       </c>
@@ -17964,7 +18162,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="846" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D846" s="35"/>
       <c r="E846" s="2">
         <v>2</v>
@@ -17975,11 +18173,14 @@
       <c r="G846" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H846" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I846" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="847" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D847" s="35"/>
       <c r="E847" s="2">
         <v>3</v>
@@ -17990,8 +18191,11 @@
       <c r="G847" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="848" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H847" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="848" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D848" s="35"/>
       <c r="E848" s="2">
         <v>4</v>
@@ -18002,8 +18206,11 @@
       <c r="G848" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="849" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H848" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D849" s="35"/>
       <c r="E849" s="2">
         <v>5</v>
@@ -18014,14 +18221,12 @@
       <c r="G849" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J849" s="7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L849" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="850" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H849" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J849" s="7"/>
+    </row>
+    <row r="850" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D850" s="35"/>
       <c r="E850" s="2">
         <v>6</v>
@@ -18032,8 +18237,11 @@
       <c r="G850" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="851" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H850" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D851" s="35"/>
       <c r="E851" s="2">
         <v>7</v>
@@ -18044,8 +18252,14 @@
       <c r="G851" s="7" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="854" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H851" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L851" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A854" s="7" t="s">
         <v>514</v>
       </c>
@@ -18067,7 +18281,9 @@
       <c r="G854" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H854" s="14"/>
+      <c r="H854" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I854" s="15" t="s">
         <v>48</v>
       </c>
@@ -18075,7 +18291,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="855" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D855" s="35"/>
       <c r="E855" s="2">
         <v>2</v>
@@ -18086,11 +18302,14 @@
       <c r="G855" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H855" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I855" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="856" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D856" s="35"/>
       <c r="E856" s="2">
         <v>3</v>
@@ -18101,8 +18320,11 @@
       <c r="G856" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="857" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H856" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D857" s="35"/>
       <c r="E857" s="2">
         <v>4</v>
@@ -18113,8 +18335,11 @@
       <c r="G857" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="858" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H857" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D858" s="35"/>
       <c r="E858" s="2">
         <v>5</v>
@@ -18125,14 +18350,12 @@
       <c r="G858" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="J858" s="7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L858" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="859" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H858" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J858" s="7"/>
+    </row>
+    <row r="859" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D859" s="35"/>
       <c r="E859" s="2">
         <v>6</v>
@@ -18143,8 +18366,20 @@
       <c r="G859" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="862" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H859" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J859" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L859" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M859" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="862" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="7" t="s">
         <v>519</v>
       </c>
@@ -18166,7 +18401,9 @@
       <c r="G862" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H862" s="14"/>
+      <c r="H862" s="33" t="s">
+        <v>989</v>
+      </c>
       <c r="I862" s="15" t="s">
         <v>48</v>
       </c>
@@ -18174,7 +18411,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="863" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D863" s="35"/>
       <c r="E863" s="2">
         <v>2</v>
@@ -18185,11 +18422,14 @@
       <c r="G863" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="H863" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I863" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="864" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D864" s="35"/>
       <c r="E864" s="2">
         <v>3</v>
@@ -18199,6 +18439,9 @@
       </c>
       <c r="G864" s="7" t="s">
         <v>216</v>
+      </c>
+      <c r="H864" s="7" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="865" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -18212,8 +18455,11 @@
       <c r="G865" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="866" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="H865" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="866" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D866" s="35"/>
       <c r="E866" s="2">
         <v>5</v>
@@ -18224,12 +18470,10 @@
       <c r="G866" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="J866" s="7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L866" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H866" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="J866" s="7"/>
     </row>
     <row r="867" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D867" s="35"/>
@@ -18242,6 +18486,9 @@
       <c r="G867" s="7" t="s">
         <v>563</v>
       </c>
+      <c r="H867" s="7" t="s">
+        <v>989</v>
+      </c>
       <c r="I867" s="7" t="s">
         <v>524</v>
       </c>
@@ -18257,6 +18504,9 @@
       <c r="G868" s="7" t="s">
         <v>513</v>
       </c>
+      <c r="H868" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="869" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D869" s="35"/>
@@ -18269,6 +18519,9 @@
       <c r="G869" s="7" t="s">
         <v>521</v>
       </c>
+      <c r="H869" s="7" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="870" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E870" s="2">
@@ -18279,6 +18532,12 @@
       </c>
       <c r="G870" s="7" t="s">
         <v>523</v>
+      </c>
+      <c r="H870" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="L870" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="873" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -18391,7 +18650,7 @@
         <v>17</v>
       </c>
       <c r="M878" s="2" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="879" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -18421,7 +18680,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="883" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
         <v>530</v>
       </c>
@@ -18453,7 +18712,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="884" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D884" s="35"/>
       <c r="E884" s="2">
         <v>2</v>
@@ -18471,7 +18730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="885" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D885" s="35"/>
       <c r="E885" s="2">
         <v>3</v>
@@ -18486,7 +18745,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="886" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D886" s="35"/>
       <c r="E886" s="2">
         <v>4</v>
@@ -18501,7 +18760,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="887" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D887" s="35"/>
       <c r="E887" s="2">
         <v>5</v>
@@ -18516,7 +18775,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="888" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="D888" s="35"/>
       <c r="E888" s="2">
         <v>6</v>
@@ -18534,10 +18793,10 @@
         <v>426</v>
       </c>
       <c r="J888" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="889" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="889" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="D889" s="35"/>
       <c r="E889" s="2">
         <v>7</v>
@@ -18554,8 +18813,11 @@
       <c r="L889" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="892" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M889" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="892" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A892" s="7" t="s">
         <v>539</v>
       </c>
@@ -18587,7 +18849,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="893" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D893" s="35"/>
       <c r="E893" s="2">
         <v>2</v>
@@ -18605,7 +18867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="894" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D894" s="35"/>
       <c r="E894" s="2">
         <v>3</v>
@@ -18620,7 +18882,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="895" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D895" s="35"/>
       <c r="E895" s="2">
         <v>4</v>
@@ -18635,7 +18897,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="896" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D896" s="35"/>
       <c r="E896" s="2">
         <v>5</v>
@@ -18954,7 +19216,7 @@
         <v>548</v>
       </c>
       <c r="J917" s="7" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="L917" s="2" t="s">
         <v>17</v>
@@ -19147,7 +19409,7 @@
         <v>217</v>
       </c>
       <c r="H931" s="7" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="I931" s="16" t="s">
         <v>51</v>
@@ -19165,7 +19427,7 @@
         <v>216</v>
       </c>
       <c r="H932" s="7" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="933" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19180,7 +19442,7 @@
         <v>215</v>
       </c>
       <c r="H933" s="7" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="934" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19195,7 +19457,7 @@
         <v>529</v>
       </c>
       <c r="H934" s="7" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="935" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19210,7 +19472,7 @@
         <v>563</v>
       </c>
       <c r="H935" s="7" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="I935" s="7" t="s">
         <v>524</v>
@@ -19228,7 +19490,7 @@
         <v>573</v>
       </c>
       <c r="H936" s="7" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="937" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19243,7 +19505,7 @@
         <v>575</v>
       </c>
       <c r="H937" s="7" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="938" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19258,7 +19520,7 @@
         <v>523</v>
       </c>
       <c r="H938" s="7" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="L938" s="2" t="s">
         <v>15</v>
@@ -19570,7 +19832,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="961" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D961" s="35"/>
       <c r="F961" s="7" t="s">
         <v>579</v>
@@ -19582,7 +19844,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="962" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D962" s="35"/>
       <c r="F962" s="7" t="s">
         <v>610</v>
@@ -19597,7 +19859,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="963" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D963" s="35"/>
       <c r="F963" s="7" t="s">
         <v>591</v>
@@ -19612,7 +19874,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="964" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="D964" s="35"/>
       <c r="F964" s="7" t="s">
         <v>594</v>
@@ -19627,7 +19889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="969" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A969" s="7" t="s">
         <v>607</v>
       </c>
@@ -19659,7 +19921,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="970" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D970" s="35"/>
       <c r="E970" s="2">
         <v>2</v>
@@ -19677,7 +19939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="971" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D971" s="35"/>
       <c r="E971" s="2">
         <v>3</v>
@@ -19692,7 +19954,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="972" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D972" s="35"/>
       <c r="E972" s="2">
         <v>4</v>
@@ -19707,7 +19969,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="973" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D973" s="35"/>
       <c r="E973" s="2">
         <v>5</v>
@@ -19722,7 +19984,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="974" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="D974" s="35"/>
       <c r="E974" s="2">
         <v>6</v>
@@ -19740,10 +20002,10 @@
         <v>426</v>
       </c>
       <c r="J974" s="7" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="975" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="D975" s="35"/>
       <c r="E975" s="2">
         <v>7</v>
@@ -19759,6 +20021,9 @@
       </c>
       <c r="L975" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="M975" s="2" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="978" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -19874,7 +20139,7 @@
         <v>618</v>
       </c>
       <c r="J983" s="2" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="L983" s="2" t="s">
         <v>15</v>
@@ -19987,13 +20252,13 @@
         <v>621</v>
       </c>
       <c r="J991" s="7" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="L991" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M991" s="2" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="992" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -20136,7 +20401,7 @@
         <v>627</v>
       </c>
       <c r="J1001" s="7" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1002" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20220,7 +20485,7 @@
         <v>636</v>
       </c>
       <c r="J1006" s="7" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.25">
@@ -20369,7 +20634,7 @@
         <v>627</v>
       </c>
       <c r="J1016" s="34" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1017" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20551,7 +20816,7 @@
         <v>627</v>
       </c>
       <c r="J1028" s="7" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1029" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20987,7 +21252,7 @@
         <v>17</v>
       </c>
       <c r="M1057" s="2" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1058" spans="1:13" x14ac:dyDescent="0.25">
@@ -21243,10 +21508,10 @@
         <v>618</v>
       </c>
       <c r="J1075" s="7" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="M1075" s="2" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1076" spans="1:13" x14ac:dyDescent="0.25">
@@ -21535,13 +21800,13 @@
         <v>718</v>
       </c>
       <c r="J1095" s="7" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="L1095" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M1095" s="2" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1096" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -21699,7 +21964,7 @@
         <v>718</v>
       </c>
       <c r="J1106" s="7" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="L1106" s="2" t="s">
         <v>17</v>
@@ -21860,7 +22125,7 @@
         <v>718</v>
       </c>
       <c r="J1117" s="7" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="L1117" s="2" t="s">
         <v>17</v>
@@ -22018,7 +22283,7 @@
         <v>718</v>
       </c>
       <c r="J1128" s="7" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="L1128" s="2" t="s">
         <v>17</v>
@@ -22542,7 +22807,7 @@
       </c>
       <c r="I1164" s="2"/>
       <c r="J1164" s="7" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="L1164" s="2" t="s">
         <v>17</v>
@@ -22741,7 +23006,7 @@
       </c>
       <c r="I1176" s="2"/>
       <c r="J1176" s="7" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="L1176" s="2" t="s">
         <v>17</v>
@@ -22946,7 +23211,7 @@
       </c>
       <c r="I1189" s="2"/>
       <c r="J1189" s="7" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="L1189" s="2" t="s">
         <v>17</v>
@@ -23184,7 +23449,7 @@
         <v>17</v>
       </c>
       <c r="M1205" s="2" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -23358,13 +23623,13 @@
         <v>806</v>
       </c>
       <c r="J1219" s="2" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="L1219" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M1219" s="2" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1222" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -23730,7 +23995,7 @@
         <v>218</v>
       </c>
       <c r="H1245" s="14" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="I1245" s="15" t="s">
         <v>48</v>
@@ -23838,7 +24103,7 @@
         <v>840</v>
       </c>
       <c r="J1251" s="7" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -23856,7 +24121,7 @@
         <v>989</v>
       </c>
       <c r="J1252" s="7" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="L1252" s="2" t="s">
         <v>15</v>
@@ -23894,7 +24159,7 @@
         <v>988</v>
       </c>
       <c r="L1255" s="2" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1256" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -24889,7 +25154,7 @@
         <v>17</v>
       </c>
       <c r="M1322" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1325" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -25316,7 +25581,7 @@
         <v>17</v>
       </c>
       <c r="M1352" s="2" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1354" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25342,7 +25607,7 @@
         <v>47</v>
       </c>
       <c r="H1354" s="14" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="I1354" s="15" t="s">
         <v>48</v>
@@ -25399,7 +25664,7 @@
         <v>17</v>
       </c>
       <c r="M1357" s="2" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1359" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -25497,7 +25762,7 @@
         <v>17</v>
       </c>
       <c r="M1363" s="2" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1365" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -25622,7 +25887,7 @@
         <v>989</v>
       </c>
       <c r="J1371" s="2" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1372" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -25780,7 +26045,7 @@
         <v>989</v>
       </c>
       <c r="J1381" s="2" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="L1381" s="2" t="s">
         <v>15</v>
@@ -25905,7 +26170,7 @@
         <v>970</v>
       </c>
       <c r="G1389" s="7" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="H1389" s="7" t="s">
         <v>989</v>
@@ -26007,10 +26272,10 @@
         <v>975</v>
       </c>
       <c r="J1396" s="2" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="L1396" s="2" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1398" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26094,7 +26359,7 @@
         <v>973</v>
       </c>
       <c r="J1402" s="2" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="L1402" s="2" t="s">
         <v>19</v>

--- a/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
+++ b/Test Execution/Feby/Test Case- Radiology_Reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Feby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C501E-58F3-47F0-A416-63B8C258A033}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5182B3-0F50-4596-8E19-DA677B5330F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3826,16 +3826,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4155,9 +4155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A795" sqref="A795"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F800" sqref="F800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,14 +4215,14 @@
       <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="R1" s="39" t="s">
+      <c r="P1" s="36"/>
+      <c r="R1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="39"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -14433,7 +14433,7 @@
       <c r="C603" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D603" s="37" t="s">
+      <c r="D603" s="38" t="s">
         <v>400</v>
       </c>
       <c r="E603" s="22">
@@ -22481,7 +22481,7 @@
       <c r="C1144" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1144" s="36" t="s">
+      <c r="D1144" s="39" t="s">
         <v>770</v>
       </c>
       <c r="E1144" s="7">
@@ -22505,7 +22505,7 @@
       </c>
     </row>
     <row r="1145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1145" s="36"/>
+      <c r="D1145" s="39"/>
       <c r="E1145" s="7">
         <v>2</v>
       </c>
@@ -22524,7 +22524,7 @@
       <c r="J1145" s="16"/>
     </row>
     <row r="1146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1146" s="36"/>
+      <c r="D1146" s="39"/>
       <c r="E1146" s="7">
         <v>3</v>
       </c>
@@ -22540,7 +22540,7 @@
       <c r="J1146" s="7"/>
     </row>
     <row r="1147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1147" s="36"/>
+      <c r="D1147" s="39"/>
       <c r="E1147" s="7">
         <v>4</v>
       </c>
@@ -22556,7 +22556,7 @@
       <c r="J1147" s="7"/>
     </row>
     <row r="1148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1148" s="36"/>
+      <c r="D1148" s="39"/>
       <c r="E1148" s="7">
         <v>5</v>
       </c>
@@ -22572,7 +22572,7 @@
       <c r="J1148" s="7"/>
     </row>
     <row r="1149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1149" s="36"/>
+      <c r="D1149" s="39"/>
       <c r="E1149" s="7">
         <v>6</v>
       </c>
@@ -22590,7 +22590,7 @@
       </c>
     </row>
     <row r="1150" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="D1150" s="36"/>
+      <c r="D1150" s="39"/>
       <c r="E1150" s="7">
         <v>7</v>
       </c>
@@ -22607,7 +22607,7 @@
       <c r="J1150" s="7"/>
     </row>
     <row r="1151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1151" s="36"/>
+      <c r="D1151" s="39"/>
       <c r="E1151" s="7">
         <v>8</v>
       </c>
@@ -22624,7 +22624,7 @@
       <c r="J1151" s="7"/>
     </row>
     <row r="1152" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="D1152" s="36"/>
+      <c r="D1152" s="39"/>
       <c r="E1152" s="7">
         <v>9</v>
       </c>
@@ -22642,7 +22642,7 @@
       </c>
     </row>
     <row r="1153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="D1153" s="36"/>
+      <c r="D1153" s="39"/>
       <c r="E1153" s="7">
         <v>10</v>
       </c>
@@ -26416,6 +26416,104 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="122">
+    <mergeCell ref="D1398:D1406"/>
+    <mergeCell ref="D1121:D1131"/>
+    <mergeCell ref="D1144:D1153"/>
+    <mergeCell ref="D1197:D1206"/>
+    <mergeCell ref="D1222:D1231"/>
+    <mergeCell ref="D1209:D1219"/>
+    <mergeCell ref="D1234:D1242"/>
+    <mergeCell ref="D1035:D1049"/>
+    <mergeCell ref="D1391:D1396"/>
+    <mergeCell ref="D653:D659"/>
+    <mergeCell ref="D680:D687"/>
+    <mergeCell ref="D986:D993"/>
+    <mergeCell ref="D969:D975"/>
+    <mergeCell ref="D996:D1008"/>
+    <mergeCell ref="D950:D956"/>
+    <mergeCell ref="D942:D947"/>
+    <mergeCell ref="D930:D938"/>
+    <mergeCell ref="D958:D964"/>
+    <mergeCell ref="D920:D927"/>
+    <mergeCell ref="D719:D726"/>
+    <mergeCell ref="D699:D706"/>
+    <mergeCell ref="D709:D716"/>
+    <mergeCell ref="D662:D676"/>
+    <mergeCell ref="D690:D696"/>
+    <mergeCell ref="D902:D908"/>
+    <mergeCell ref="D978:D983"/>
+    <mergeCell ref="D129:D136"/>
+    <mergeCell ref="D139:D148"/>
+    <mergeCell ref="D547:D552"/>
+    <mergeCell ref="D555:D560"/>
+    <mergeCell ref="D572:D577"/>
+    <mergeCell ref="D580:D585"/>
+    <mergeCell ref="D603:D609"/>
+    <mergeCell ref="D612:D619"/>
+    <mergeCell ref="D622:D629"/>
+    <mergeCell ref="D563:D568"/>
+    <mergeCell ref="D588:D600"/>
+    <mergeCell ref="D151:D160"/>
+    <mergeCell ref="D234:D249"/>
+    <mergeCell ref="D252:D270"/>
+    <mergeCell ref="D443:D475"/>
+    <mergeCell ref="D433:D440"/>
+    <mergeCell ref="D273:D288"/>
+    <mergeCell ref="D292:D304"/>
+    <mergeCell ref="D307:D318"/>
+    <mergeCell ref="D413:D420"/>
+    <mergeCell ref="D423:D430"/>
+    <mergeCell ref="D355:D375"/>
+    <mergeCell ref="D378:D388"/>
+    <mergeCell ref="D391:D409"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D490:D500"/>
+    <mergeCell ref="D503:D512"/>
+    <mergeCell ref="D643:D650"/>
+    <mergeCell ref="D514:D524"/>
+    <mergeCell ref="D527:D534"/>
+    <mergeCell ref="D537:D544"/>
+    <mergeCell ref="D632:D639"/>
+    <mergeCell ref="D32:D44"/>
+    <mergeCell ref="D47:D62"/>
+    <mergeCell ref="D65:D77"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="D478:D487"/>
+    <mergeCell ref="D163:D194"/>
+    <mergeCell ref="D197:D205"/>
+    <mergeCell ref="D209:D218"/>
+    <mergeCell ref="D222:D231"/>
+    <mergeCell ref="D321:D333"/>
+    <mergeCell ref="D337:D352"/>
+    <mergeCell ref="D1264:D1275"/>
+    <mergeCell ref="D1278:D1284"/>
+    <mergeCell ref="D1287:D1294"/>
+    <mergeCell ref="D1297:D1304"/>
+    <mergeCell ref="D730:D736"/>
+    <mergeCell ref="D739:D744"/>
+    <mergeCell ref="D892:D899"/>
+    <mergeCell ref="D806:D813"/>
+    <mergeCell ref="D816:D823"/>
+    <mergeCell ref="D826:D832"/>
+    <mergeCell ref="D747:D757"/>
+    <mergeCell ref="D760:D772"/>
+    <mergeCell ref="D775:D781"/>
+    <mergeCell ref="D786:D793"/>
+    <mergeCell ref="D796:D802"/>
+    <mergeCell ref="D835:D842"/>
+    <mergeCell ref="D854:D859"/>
+    <mergeCell ref="D862:D869"/>
+    <mergeCell ref="D845:D851"/>
+    <mergeCell ref="D873:D880"/>
+    <mergeCell ref="D883:D889"/>
+    <mergeCell ref="D911:D917"/>
     <mergeCell ref="D1011:D1020"/>
     <mergeCell ref="D1375:D1381"/>
     <mergeCell ref="D1383:D1389"/>
@@ -26440,104 +26538,6 @@
     <mergeCell ref="D1134:D1141"/>
     <mergeCell ref="D1157:D1167"/>
     <mergeCell ref="D1169:D1180"/>
-    <mergeCell ref="D321:D333"/>
-    <mergeCell ref="D337:D352"/>
-    <mergeCell ref="D1264:D1275"/>
-    <mergeCell ref="D1278:D1284"/>
-    <mergeCell ref="D1287:D1294"/>
-    <mergeCell ref="D1297:D1304"/>
-    <mergeCell ref="D730:D736"/>
-    <mergeCell ref="D739:D744"/>
-    <mergeCell ref="D892:D899"/>
-    <mergeCell ref="D806:D813"/>
-    <mergeCell ref="D816:D823"/>
-    <mergeCell ref="D826:D832"/>
-    <mergeCell ref="D747:D757"/>
-    <mergeCell ref="D760:D772"/>
-    <mergeCell ref="D775:D781"/>
-    <mergeCell ref="D786:D793"/>
-    <mergeCell ref="D796:D802"/>
-    <mergeCell ref="D835:D842"/>
-    <mergeCell ref="D854:D859"/>
-    <mergeCell ref="D862:D869"/>
-    <mergeCell ref="D845:D851"/>
-    <mergeCell ref="D873:D880"/>
-    <mergeCell ref="D883:D889"/>
-    <mergeCell ref="D911:D917"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="D490:D500"/>
-    <mergeCell ref="D503:D512"/>
-    <mergeCell ref="D643:D650"/>
-    <mergeCell ref="D514:D524"/>
-    <mergeCell ref="D527:D534"/>
-    <mergeCell ref="D537:D544"/>
-    <mergeCell ref="D632:D639"/>
-    <mergeCell ref="D32:D44"/>
-    <mergeCell ref="D47:D62"/>
-    <mergeCell ref="D65:D77"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="D117:D126"/>
-    <mergeCell ref="D478:D487"/>
-    <mergeCell ref="D163:D194"/>
-    <mergeCell ref="D197:D205"/>
-    <mergeCell ref="D209:D218"/>
-    <mergeCell ref="D222:D231"/>
-    <mergeCell ref="D129:D136"/>
-    <mergeCell ref="D139:D148"/>
-    <mergeCell ref="D547:D552"/>
-    <mergeCell ref="D555:D560"/>
-    <mergeCell ref="D572:D577"/>
-    <mergeCell ref="D580:D585"/>
-    <mergeCell ref="D603:D609"/>
-    <mergeCell ref="D612:D619"/>
-    <mergeCell ref="D622:D629"/>
-    <mergeCell ref="D563:D568"/>
-    <mergeCell ref="D588:D600"/>
-    <mergeCell ref="D151:D160"/>
-    <mergeCell ref="D234:D249"/>
-    <mergeCell ref="D252:D270"/>
-    <mergeCell ref="D443:D475"/>
-    <mergeCell ref="D433:D440"/>
-    <mergeCell ref="D273:D288"/>
-    <mergeCell ref="D292:D304"/>
-    <mergeCell ref="D307:D318"/>
-    <mergeCell ref="D413:D420"/>
-    <mergeCell ref="D423:D430"/>
-    <mergeCell ref="D355:D375"/>
-    <mergeCell ref="D378:D388"/>
-    <mergeCell ref="D391:D409"/>
-    <mergeCell ref="D653:D659"/>
-    <mergeCell ref="D680:D687"/>
-    <mergeCell ref="D986:D993"/>
-    <mergeCell ref="D969:D975"/>
-    <mergeCell ref="D996:D1008"/>
-    <mergeCell ref="D950:D956"/>
-    <mergeCell ref="D942:D947"/>
-    <mergeCell ref="D930:D938"/>
-    <mergeCell ref="D958:D964"/>
-    <mergeCell ref="D920:D927"/>
-    <mergeCell ref="D719:D726"/>
-    <mergeCell ref="D699:D706"/>
-    <mergeCell ref="D709:D716"/>
-    <mergeCell ref="D662:D676"/>
-    <mergeCell ref="D690:D696"/>
-    <mergeCell ref="D902:D908"/>
-    <mergeCell ref="D978:D983"/>
-    <mergeCell ref="D1398:D1406"/>
-    <mergeCell ref="D1121:D1131"/>
-    <mergeCell ref="D1144:D1153"/>
-    <mergeCell ref="D1197:D1206"/>
-    <mergeCell ref="D1222:D1231"/>
-    <mergeCell ref="D1209:D1219"/>
-    <mergeCell ref="D1234:D1242"/>
-    <mergeCell ref="D1035:D1049"/>
-    <mergeCell ref="D1391:D1396"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B1365 B1359 B1354 B1349 B1341 B1325 B1307 B1297 B1287 B1278 B1264 B1255 B1245 B1234 B1222 B1209 B1197 B1182 B1169 B1157 B1144 B1134 B1121 B1110 B1099 B1088 B1079 B1070 B1061 B1052 B1035 B1023 B1011 B996 B986 B958 B978 B969 B950 B942 B930 B920 B911 B902 B892 B883 B873 B862 B854 B844:B845 B835 B826 B816 B806 B796 B786 B775 B760 B747 B739 B730 B632 B709 B719 B712 B699 B690 B680 B662 B653 B643 B622 B11:B612 B1375 B1383 B1391 B1398" xr:uid="{00000000-0002-0000-0000-000000000000}">
